--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail14 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>1.123569551127459e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.6242213516719729</v>
+        <v>4.080734723436869e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.3616957693309377</v>
+        <v>6.933352661475916e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.080734723436869e-07</v>
+        <v>0.00484595737422266</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.933352661475916e-06</v>
+        <v>0.1836561046472331</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.00484595737422266</v>
+        <v>0.03370239504982435</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1836561046472331</v>
+        <v>1.883262540172655</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03370239504982435</v>
+        <v>1.984147094671441</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.873905208183928</v>
+        <v>3.676215888020891</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.984147094671441</v>
+        <v>6.071670121040001e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.676215888020891</v>
+        <v>83286722.76344655</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.071670121040001e-15</v>
+        <v>1.433240691877512e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>83286722.76344655</v>
+        <v>42.11722169744912</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.433240691877512e-06</v>
+        <v>0.000161914799308231</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>42.11722169744912</v>
+        <v>9.849279351379682</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000161914799308231</v>
+        <v>1.181987946106689</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.849279351379682</v>
+        <v>0.01570708003153919</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.181987946106689</v>
+        <v>2.779638460955809</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01570708003153919</v>
+        <v>0.9584377677886954</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.779638460955809</v>
+        <v>1.501957876406976</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9584377677886954</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.501957876406976</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2538032791686802</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>1.109575382633044e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.6464327743438244</v>
+        <v>4.080734723436869e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.2541459243772799</v>
+        <v>6.934774849350438e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.080734723436869e-07</v>
+        <v>0.01989596677960352</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.934774849350438e-06</v>
+        <v>0.1603871105700878</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01989596677960352</v>
+        <v>0.02609620410089669</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1603871105700878</v>
+        <v>1.884450869304856</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02609620410089669</v>
+        <v>1.910251022576779</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.870457317508778</v>
+        <v>3.68069507507782</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.910251022576779</v>
+        <v>6.056901389798071e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.68069507507782</v>
+        <v>85891231.65090998</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.056901389798071e-15</v>
+        <v>1.398518847381166e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>85891231.65090998</v>
+        <v>44.68360087910373</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.398518847381166e-06</v>
+        <v>0.0001944990331808086</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>44.68360087910373</v>
+        <v>9.592213994775115</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001944990331808086</v>
+        <v>1.478667217071435</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.592213994775115</v>
+        <v>0.0178959667754591</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.478667217071435</v>
+        <v>2.796645294314954</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0178959667754591</v>
+        <v>0.9614574975358063</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.796645294314954</v>
+        <v>1.495904040968473</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9614574975358063</v>
+        <v>10</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.495904040968473</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2822019340171984</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>1.075485055922252e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.6556322804424408</v>
+        <v>4.080734723436869e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.09532307151146657</v>
+        <v>6.937600670007874e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.080734723436869e-07</v>
+        <v>0.03108967147869479</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.937600670007874e-06</v>
+        <v>0.1545564832467787</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.03108967147869479</v>
+        <v>0.02484662290240596</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1545564832467787</v>
+        <v>1.883473594971879</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02484662290240596</v>
+        <v>1.858371456247288</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.861035961700101</v>
+        <v>3.748452168825549</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.858371456247288</v>
+        <v>5.839911103904419e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.748452168825549</v>
+        <v>90360637.10597681</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.839911103904419e-15</v>
+        <v>1.328425839666988e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>90360637.10597681</v>
+        <v>47.68313543047903</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.328425839666988e-06</v>
+        <v>0.0002556635007910334</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>47.68313543047903</v>
+        <v>10.62049669143461</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002556635007910334</v>
+        <v>1.51775477745989</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.62049669143461</v>
+        <v>0.02883755178158875</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.51775477745989</v>
+        <v>2.57694503819533</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02883755178158875</v>
+        <v>0.9610630029548562</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.57694503819533</v>
+        <v>1.498836658782137</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9610630029548562</v>
+        <v>15</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.498836658782137</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3411586591355845</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>1.025640909091707e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.6187599029384434</v>
+        <v>4.080734723436869e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.007268922466186378</v>
+        <v>6.941259473232753e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.080734723436869e-07</v>
+        <v>0.03776515361461606</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.941259473232753e-06</v>
+        <v>0.159701333012865</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03776515361461606</v>
+        <v>0.02693019028341594</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.159701333012865</v>
+        <v>1.88807080773077</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02693019028341594</v>
+        <v>1.879860454595876</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.867122208164472</v>
+        <v>3.47471469557094</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.879860454595876</v>
+        <v>5.375379566926486e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.47471469557094</v>
+        <v>97853744.20759638</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.375379566926486e-15</v>
+        <v>1.227707076198079e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>97853744.20759638</v>
+        <v>51.47116898618497</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.227707076198079e-06</v>
+        <v>0.0002594499738044878</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>51.47116898618497</v>
+        <v>11.88997217626687</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002594499738044878</v>
+        <v>1.303659029410118</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.88997217626687</v>
+        <v>0.03667881597723299</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.303659029410118</v>
+        <v>2.447955475594946</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03667881597723299</v>
+        <v>0.9609278666533583</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.447955475594946</v>
+        <v>1.526276885602937</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9609278666533583</v>
+        <v>15</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.526276885602937</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3795662164931743</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>9.680394662559913e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.5276402828795456</v>
+        <v>4.049313712750262e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.047849488845916</v>
+        <v>6.945192511648926e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.049313712750262e-07</v>
+        <v>0.04066342642482904</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.945192511648926e-06</v>
+        <v>0.1691265672491251</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04066342642482904</v>
+        <v>0.03025689380035274</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1691265672491251</v>
+        <v>1.915154002828334</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03025689380035274</v>
+        <v>1.961889370079199</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.911556693868523</v>
+        <v>3.495382359280384</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.961889370079199</v>
+        <v>5.311999897774758e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.495382359280384</v>
+        <v>98280300.89117399</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.311999897774758e-15</v>
+        <v>1.227478236178228e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>98280300.89117399</v>
+        <v>51.30870020240009</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.227478236178228e-06</v>
+        <v>0.0002149011668329208</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>51.30870020240009</v>
+        <v>12.02662638912486</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002149011668329208</v>
+        <v>1.136992456580698</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.02662638912486</v>
+        <v>0.03108324939145545</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.136992456580698</v>
+        <v>2.517553924504758</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.03108324939145545</v>
+        <v>0.9601039504657145</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.517553924504758</v>
+        <v>1.365581266386473</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9601039504657145</v>
+        <v>12</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.365581266386473</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3525911822767411</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>9.090702884101098e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3864053751158159</v>
+        <v>3.901804327814813e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.2209278663791756</v>
+        <v>6.949041491359461e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.901804327814813e-07</v>
+        <v>0.04096562599109604</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.949041491359461e-06</v>
+        <v>0.1793910031788726</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04096562599109604</v>
+        <v>0.03385621364815389</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1793910031788726</v>
+        <v>1.923023849933069</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03385621364815389</v>
+        <v>1.89322762090964</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.917020962501202</v>
+        <v>3.710146456146621</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.89322762090964</v>
+        <v>4.321728074645313e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.710146456146621</v>
+        <v>119601282.5340446</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.321728074645313e-15</v>
+        <v>1.007487894818511e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>119601282.5340446</v>
+        <v>61.82001569232948</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.007487894818511e-06</v>
+        <v>0.0001947309215656061</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>61.82001569232948</v>
+        <v>12.06205902842241</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001947309215656061</v>
+        <v>1.041967684493084</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.06205902842241</v>
+        <v>0.0283320381602339</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.041967684493084</v>
+        <v>2.431602627309817</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0283320381602339</v>
+        <v>0.9600929565056462</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.431602627309817</v>
+        <v>1.363851427366692</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9600929565056462</v>
+        <v>18</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.363851427366692</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3329842114902554</v>
       </c>
     </row>
@@ -1151,72 +1103,66 @@
         <v>8.540702936928367e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.2146431113233367</v>
+        <v>3.66023895945251e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.4739435547532338</v>
+        <v>6.952585766127974e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.66023895945251e-07</v>
+        <v>0.03932854961409705</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.952585766127974e-06</v>
+        <v>0.1883861565739542</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03932854961409705</v>
+        <v>0.03702997774802438</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1883861565739542</v>
+        <v>1.91437682004811</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03702997774802438</v>
+        <v>1.947021652804945</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.909693568989625</v>
+        <v>3.396324378513692</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.947021652804945</v>
+        <v>3.447720522364069e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.396324378513692</v>
+        <v>141832541.3368745</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.447720522364069e-15</v>
+        <v>8.464958955498135e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>141832541.3368745</v>
+        <v>69.35596570518084</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.464958955498135e-07</v>
+        <v>0.000186494616444443</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>69.35596570518084</v>
+        <v>11.42892136265212</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000186494616444443</v>
+        <v>1.075914312418213</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.42892136265212</v>
+        <v>0.02435997221396461</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.075914312418213</v>
+        <v>2.491395146076927</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02435997221396461</v>
+        <v>0.9598901210802357</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.491395146076927</v>
+        <v>1.378902524725649</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9598901210802357</v>
+        <v>21</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.378902524725649</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3188527878337389</v>
       </c>
     </row>
@@ -1231,72 +1177,66 @@
         <v>8.060211548189641e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.03877788217455849</v>
+        <v>3.397283522241561e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.7347443246145415</v>
+        <v>6.955766734871951e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.397283522241561e-07</v>
+        <v>0.03736023040883209</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.955766734871951e-06</v>
+        <v>0.1961893338893623</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03736023040883209</v>
+        <v>0.03987903061119717</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1961893338893623</v>
+        <v>1.908492313304926</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03987903061119717</v>
+        <v>2.093328166990809</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.904297788159183</v>
+        <v>3.61775526111707</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.093328166990809</v>
+        <v>3.038589350124358e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.61775526111707</v>
+        <v>161386406.9706714</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.038589350124358e-15</v>
+        <v>7.434904846916915e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>161386406.9706714</v>
+        <v>79.14179877550224</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.434904846916915e-07</v>
+        <v>0.0001874921644475128</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>79.14179877550224</v>
+        <v>9.857568238865101</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001874921644475128</v>
+        <v>1.272037723812332</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.857568238865101</v>
+        <v>0.01821892327840162</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.272037723812332</v>
+        <v>2.686029723429679</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01821892327840162</v>
+        <v>0.9604986109016009</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.686029723429679</v>
+        <v>1.388426015604679</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9604986109016009</v>
+        <v>30</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.388426015604679</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3012928264133063</v>
       </c>
     </row>
@@ -1311,72 +1251,66 @@
         <v>7.655248041715188e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.123495856237081</v>
+        <v>3.126919792742263e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.9624544207994079</v>
+        <v>6.958590618934358e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.126919792742263e-07</v>
+        <v>0.03424625302935545</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.958590618934358e-06</v>
+        <v>0.2025036482019361</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03424625302935545</v>
+        <v>0.04217150508679857</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2025036482019361</v>
+        <v>1.897804275302401</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04217150508679857</v>
+        <v>2.132428511222178</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.893602364350272</v>
+        <v>3.637148029988821</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.132428511222178</v>
+        <v>3.006273059400633e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.637148029988821</v>
+        <v>162849374.9502488</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.006273059400633e-15</v>
+        <v>7.349401627269078e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>162849374.9502488</v>
+        <v>79.72611779175593</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.349401627269078e-07</v>
+        <v>0.0001958630772387859</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>79.72611779175593</v>
+        <v>8.826379913097558</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001958630772387859</v>
+        <v>1.546145271272444</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.826379913097558</v>
+        <v>0.0152587095792866</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.546145271272444</v>
+        <v>2.779164492970832</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0152587095792866</v>
+        <v>0.9603309120276802</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.779164492970832</v>
+        <v>1.416014845041654</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9603309120276802</v>
+        <v>30</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.416014845041654</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3120856180634751</v>
       </c>
     </row>
@@ -1391,72 +1325,66 @@
         <v>7.339985113288573e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2492036026734939</v>
+        <v>2.800636546864598e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.108726971085779</v>
+        <v>6.960955282471456e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.800636546864598e-07</v>
+        <v>0.02827589765216605</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.960955282471456e-06</v>
+        <v>0.2043949389938033</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02827589765216605</v>
+        <v>0.04255940154878358</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2043949389938033</v>
+        <v>1.896612376168153</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04255940154878358</v>
+        <v>2.264713588832008</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.89459293784868</v>
+        <v>3.607857870762712</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.264713588832008</v>
+        <v>3.055283664012124e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.607857870762712</v>
+        <v>162703387.1761822</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.055283664012124e-15</v>
+        <v>7.351045547094282e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>162703387.1761822</v>
+        <v>80.88066743171271</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>7.351045547094282e-07</v>
+        <v>0.0001739186892267458</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>80.88066743171271</v>
+        <v>9.276709534910729</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001739186892267458</v>
+        <v>1.31366098271816</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.276709534910729</v>
+        <v>0.0149669797355051</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.31366098271816</v>
+        <v>2.824565386282909</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0149669797355051</v>
+        <v>0.9613691503018296</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.824565386282909</v>
+        <v>1.395571832515639</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9613691503018296</v>
+        <v>30</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.395571832515639</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3425348282954608</v>
       </c>
     </row>
@@ -1471,72 +1399,66 @@
         <v>7.142254354548895e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3100855395963927</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.138273237117498</v>
+        <v>6.962647061217001e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>0.01778907522255438</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.962647061217001e-06</v>
+        <v>0.1962428986758716</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.01778907522255438</v>
+        <v>0.03879860810469789</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1962428986758716</v>
+        <v>1.89737510656916</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03879860810469789</v>
+        <v>2.231686421375445</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.897011159053442</v>
+        <v>3.455853248487979</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.231686421375445</v>
+        <v>3.329965965914054e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.455853248487979</v>
+        <v>155615671.9872288</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.329965965914054e-15</v>
+        <v>7.717018444312109e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>155615671.9872288</v>
+        <v>80.63924625805866</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.717018444312109e-07</v>
+        <v>0.0001653671216637398</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>80.63924625805866</v>
+        <v>10.55662856608634</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001653671216637398</v>
+        <v>1.12689424112939</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.55662856608634</v>
+        <v>0.01842891002433355</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.12689424112939</v>
+        <v>2.656308336537028</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01842891002433355</v>
+        <v>0.9620418401539652</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.656308336537028</v>
+        <v>1.373371850938483</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9620418401539652</v>
+        <v>23</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.373371850938483</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3337425395423984</v>
       </c>
     </row>
@@ -1551,72 +1473,66 @@
         <v>7.065293179606604e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3189082919161104</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.118175129742399</v>
+        <v>6.963454790892345e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>0.005061370694779203</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.963454790892345e-06</v>
+        <v>0.1820701888029932</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.005061370694779203</v>
+        <v>0.03315184833121606</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1820701888029932</v>
+        <v>1.897950561063324</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03315184833121606</v>
+        <v>2.061587878840797</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.893591888759679</v>
+        <v>3.460462698812422</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.061587878840797</v>
+        <v>3.3211006255582e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.460462698812422</v>
+        <v>151315315.2402827</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.3211006255582e-15</v>
+        <v>7.934381473855906e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>151315315.2402827</v>
+        <v>76.04099803927609</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>7.934381473855906e-07</v>
+        <v>0.0001621097327740167</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>76.04099803927609</v>
+        <v>10.27014362756474</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001621097327740167</v>
+        <v>1.153423130540046</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.27014362756474</v>
+        <v>0.01709866187881762</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.153423130540046</v>
+        <v>2.712405915945537</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01709866187881762</v>
+        <v>0.9617177623916455</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.712405915945537</v>
+        <v>1.39386690735865</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9617177623916455</v>
+        <v>23</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.39386690735865</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3014040591019175</v>
       </c>
     </row>
@@ -1631,72 +1547,66 @@
         <v>7.067659628185864e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.3201938875841413</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.119739859478641</v>
+        <v>6.96340570073817e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.005995690743740048</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.96340570073817e-06</v>
+        <v>0.1714134727990702</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.005995690743740048</v>
+        <v>0.02940504904642185</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1714134727990702</v>
+        <v>1.896507111934139</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02940504904642185</v>
+        <v>2.038959422139886</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.891634660467597</v>
+        <v>3.610479647241015</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.038959422139886</v>
+        <v>3.050848041453064e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.610479647241015</v>
+        <v>164508739.9917474</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.050848041453064e-15</v>
+        <v>7.29181801840268e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>164508739.9917474</v>
+        <v>82.56548353000268</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.29181801840268e-07</v>
+        <v>0.0001599422079094082</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>82.56548353000268</v>
+        <v>9.530874816486264</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001599422079094082</v>
+        <v>1.233406514265777</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.530874816486264</v>
+        <v>0.01452876226945503</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.233406514265777</v>
+        <v>2.844426898534733</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01452876226945503</v>
+        <v>0.9609106740070069</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.844426898534733</v>
+        <v>1.385730923882031</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9609106740070069</v>
+        <v>38</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.385730923882031</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.306919537741639</v>
       </c>
     </row>
@@ -1711,72 +1621,66 @@
         <v>7.110810633051452e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3340234025158216</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.140507557975929</v>
+        <v>6.962657668196353e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.01472794738903295</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.962657668196353e-06</v>
+        <v>0.1641180033585369</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.01472794738903295</v>
+        <v>0.02714317031675142</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1641180033585369</v>
+        <v>1.896091209877618</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02714317031675142</v>
+        <v>2.02713997264416</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.89276427118334</v>
+        <v>3.864626602205989</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.02713997264416</v>
+        <v>2.662780089030787e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.864626602205989</v>
+        <v>183379091.1847725</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.662780089030787e-15</v>
+        <v>6.52497288571341e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>183379091.1847725</v>
+        <v>89.54367881391366</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.52497288571341e-07</v>
+        <v>0.0001605231692291891</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>89.54367881391366</v>
+        <v>9.251903087403871</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001605231692291891</v>
+        <v>1.31944816714666</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.251903087403871</v>
+        <v>0.01374041580654165</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.31944816714666</v>
+        <v>2.91535159985361</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01374041580654165</v>
+        <v>0.9588810179267087</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.91535159985361</v>
+        <v>1.392618890284567</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9588810179267087</v>
+        <v>44</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.392618890284567</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3778163270350944</v>
       </c>
     </row>
@@ -1791,72 +1695,66 @@
         <v>7.170986034083193e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3627187179817639</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.159742921520927</v>
+        <v>6.961349723150861e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.02153630493045813</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.961349723150861e-06</v>
+        <v>0.157398519537739</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02153630493045813</v>
+        <v>0.02523229275753012</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.157398519537739</v>
+        <v>1.894844439297081</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02523229275753012</v>
+        <v>1.986324848805986</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.888854687777551</v>
+        <v>4.066336285236038</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.986324848805986</v>
+        <v>2.405159017849725e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.066336285236038</v>
+        <v>204123998.9919258</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.405159017849725e-15</v>
+        <v>5.859001625046977e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>204123998.9919258</v>
+        <v>100.2148154837608</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.859001625046977e-07</v>
+        <v>0.0001593506013840719</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>100.2148154837608</v>
+        <v>8.980013200183842</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001593506013840719</v>
+        <v>1.378846287626629</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.980013200183842</v>
+        <v>0.01285013401397179</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.378846287626629</v>
+        <v>2.982323719120606</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01285013401397179</v>
+        <v>0.9579796547933219</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.982323719120606</v>
+        <v>1.412467946068743</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9579796547933219</v>
+        <v>44</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.412467946068743</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.466731987191221</v>
       </c>
     </row>
@@ -1871,72 +1769,66 @@
         <v>7.226098224894595e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4057570792347372</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.160395236750495</v>
+        <v>6.959628024604678e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.0257256380258183</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.959628024604678e-06</v>
+        <v>0.1519752667226417</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0257256380258183</v>
+        <v>0.02375519261641963</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1519752667226417</v>
+        <v>1.895119984762666</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02375519261641963</v>
+        <v>2.000322669562081</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.891192008201836</v>
+        <v>4.080346195906486</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.000322669562081</v>
+        <v>2.251799623722215e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.080346195906486</v>
+        <v>219493775.0136702</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.251799623722215e-15</v>
+        <v>5.450987704038978e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>219493775.0136702</v>
+        <v>108.4861152598973</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.450987704038978e-07</v>
+        <v>0.0001549057713702099</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>108.4861152598973</v>
+        <v>8.887386402362955</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001549057713702099</v>
+        <v>1.324102203738951</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.887386402362955</v>
+        <v>0.0122353310367067</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.324102203738951</v>
+        <v>3.034392424548395</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0122353310367067</v>
+        <v>0.9571232553873124</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.034392424548395</v>
+        <v>1.413221335872443</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9571232553873124</v>
+        <v>44</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.413221335872443</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.4473244104409263</v>
       </c>
     </row>
@@ -1951,72 +1843,66 @@
         <v>7.258262952976794e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4606685343522932</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.135043522413781</v>
+        <v>6.957690361169804e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.0274785027597367</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.957690361169804e-06</v>
+        <v>0.1494142152384856</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.0274785027597367</v>
+        <v>0.0230778393306513</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1494142152384856</v>
+        <v>1.893075220178239</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.0230778393306513</v>
+        <v>2.309019124963426</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.889733166398539</v>
+        <v>4.235160547302239</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.309019124963426</v>
+        <v>2.090181551090297e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.235160547302239</v>
+        <v>225383912.8160579</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.090181551090297e-15</v>
+        <v>5.284582280861005e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>225383912.8160579</v>
+        <v>106.1768504622282</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>5.284582280861005e-07</v>
+        <v>0.00015164882232365</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>106.1768504622282</v>
+        <v>9.984356629864386</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.00015164882232365</v>
+        <v>1.1877363411922</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.984356629864386</v>
+        <v>0.01511747336994621</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.1877363411922</v>
+        <v>2.986135032634717</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01511747336994621</v>
+        <v>0.9566154177785167</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.986135032634717</v>
+        <v>1.40407385726794</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9566154177785167</v>
+        <v>44</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.40407385726794</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.4238992569031188</v>
       </c>
     </row>
@@ -2031,72 +1917,66 @@
         <v>7.262329374458245e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.5239857327083679</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.082525739929707</v>
+        <v>6.955654182006421e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.02858489676450917</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.955654182006421e-06</v>
+        <v>0.1482336420810877</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.02858489676450917</v>
+        <v>0.02278817026369731</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1482336420810877</v>
+        <v>1.893406772359567</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02278817026369731</v>
+        <v>1.993848756880437</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.899939639552683</v>
+        <v>4.338041660961681</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.993848756880437</v>
+        <v>1.992215568898913e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.338041660961681</v>
+        <v>236036673.2863366</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.992215568898913e-15</v>
+        <v>5.050644493762935e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>236036673.2863366</v>
+        <v>110.9929258402094</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>5.050644493762935e-07</v>
+        <v>0.0001536423995134285</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>110.9929258402094</v>
+        <v>10.86281546676361</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001536423995134285</v>
+        <v>1.151160804645256</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.86281546676361</v>
+        <v>0.01812991989006011</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.151160804645256</v>
+        <v>2.932064334028281</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01812991989006011</v>
+        <v>0.9569817424309913</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.932064334028281</v>
+        <v>1.347388952985771</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9569817424309913</v>
+        <v>61</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.347388952985771</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.462186583265539</v>
       </c>
     </row>
@@ -2111,72 +1991,66 @@
         <v>7.23308830896931e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.5942781105691256</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.9981745675184817</v>
+        <v>6.953520481316244e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.03035867081818243</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.953520481316244e-06</v>
+        <v>0.1468848443274287</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.03035867081818243</v>
+        <v>0.02249326724976968</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1468848443274287</v>
+        <v>1.889352166253164</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02249326724976968</v>
+        <v>1.997880811632248</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.898727538189698</v>
+        <v>4.373313676703775</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.997880811632248</v>
+        <v>1.615156691149977e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.373313676703775</v>
+        <v>291150307.6742471</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.615156691149977e-15</v>
+        <v>4.089071854465066e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>291150307.6742471</v>
+        <v>136.9144126529829</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.089071854465066e-07</v>
+        <v>0.0001568306376967949</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>136.9144126529829</v>
+        <v>10.45051489304603</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001568306376967949</v>
+        <v>1.216674421508783</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.45051489304603</v>
+        <v>0.01712798545066173</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.216674421508783</v>
+        <v>3.000343533021421</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01712798545066173</v>
+        <v>0.9578406042246332</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.000343533021421</v>
+        <v>1.360721327234768</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9578406042246332</v>
+        <v>65</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.360721327234768</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.5121209186816076</v>
       </c>
     </row>
@@ -2191,72 +2065,66 @@
         <v>7.16049316430429e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.6698018689554402</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.8759454546239658</v>
+        <v>6.951261837668321e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.03221802424124722</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.951261837668321e-06</v>
+        <v>0.1464182456788484</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03221802424124722</v>
+        <v>0.02247402973552153</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1464182456788484</v>
+        <v>1.893900238405979</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02247402973552153</v>
+        <v>2.133859262257078</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.904792441433313</v>
+        <v>4.567076208180378</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.133859262257078</v>
+        <v>1.398418077958677e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.567076208180378</v>
+        <v>351722097.2355508</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.398418077958677e-15</v>
+        <v>3.404679683746026e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>351722097.2355508</v>
+        <v>172.9961100593419</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.404679683746026e-07</v>
+        <v>0.0001637925423845066</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>172.9961100593419</v>
+        <v>8.841195705209696</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001637925423845066</v>
+        <v>1.460220846752284</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.841195705209696</v>
+        <v>0.01280312931984018</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.460220846752284</v>
+        <v>3.112624749328728</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01280312931984018</v>
+        <v>0.9588733848259259</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.112624749328728</v>
+        <v>1.331251460662648</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9588733848259259</v>
+        <v>78</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.331251460662648</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.4972284396362756</v>
       </c>
     </row>
@@ -2271,72 +2139,66 @@
         <v>7.046512330705462e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.7468712789259513</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.7194236602524455</v>
+        <v>6.948933235371914e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.03307887018792649</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.948933235371914e-06</v>
+        <v>0.1484252095717656</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03307887018792649</v>
+        <v>0.02312347180636114</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1484252095717656</v>
+        <v>1.890696976422107</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02312347180636114</v>
+        <v>2.370890355741009</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.907477260836157</v>
+        <v>4.636084307826644</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.370890355741009</v>
+        <v>1.357097018875401e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.636084307826644</v>
+        <v>370340796.723736</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.357097018875401e-15</v>
+        <v>3.242089674544056e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>370340796.723736</v>
+        <v>186.1289852217467</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.242089674544056e-07</v>
+        <v>0.0001714581768118976</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>186.1289852217467</v>
+        <v>9.002190186314538</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001714581768118976</v>
+        <v>1.522218064016273</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.002190186314538</v>
+        <v>0.01389487260057683</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.522218064016273</v>
+        <v>3.089899732905703</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01389487260057683</v>
+        <v>0.9591683997385699</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.089899732905703</v>
+        <v>1.322687677007652</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9591683997385699</v>
+        <v>91</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.322687677007652</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.4910073244932671</v>
       </c>
     </row>
@@ -2351,72 +2213,66 @@
         <v>6.904270562830063e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.8236684819011516</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.5334324985606607</v>
+        <v>6.94663293104237e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.03264448678696759</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.94663293104237e-06</v>
+        <v>0.1522222089139536</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.03264448678696759</v>
+        <v>0.02423673688275102</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1522222089139536</v>
+        <v>1.895725045300162</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02423673688275102</v>
+        <v>2.250497379495379</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.912749796663953</v>
+        <v>4.719741652147816</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.250497379495379</v>
+        <v>1.309414339552818e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.719741652147816</v>
+        <v>386918328.0828194</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.309414339552818e-15</v>
+        <v>3.104398693282713e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>386918328.0828194</v>
+        <v>196.026911552946</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.104398693282713e-07</v>
+        <v>0.000168634549810166</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>196.026911552946</v>
+        <v>11.55387273135622</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.000168634549810166</v>
+        <v>1.11108383264179</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.55387273135622</v>
+        <v>0.02251135912297288</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.11108383264179</v>
+        <v>2.902959577835479</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02251135912297288</v>
+        <v>0.9590895403779265</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.902959577835479</v>
+        <v>1.325779782465388</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9590895403779265</v>
+        <v>93</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.325779782465388</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.5869454184603075</v>
       </c>
     </row>
@@ -2431,72 +2287,66 @@
         <v>6.745946195194372e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.9003089079617164</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.3183196868488944</v>
+        <v>6.9444244643245e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.03229662084527293</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.9444244643245e-06</v>
+        <v>0.156280425213122</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.03229662084527293</v>
+        <v>0.02546677251498178</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.156280425213122</v>
+        <v>1.898554739863286</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02546677251498178</v>
+        <v>2.219562019171685</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.914283235172074</v>
+        <v>4.813460736117754</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.219562019171685</v>
+        <v>1.545919192006657e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.813460736117754</v>
+        <v>328863268.6159134</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.545919192006657e-15</v>
+        <v>3.651507827803435e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>328863268.6159134</v>
+        <v>167.1927829722882</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.651507827803435e-07</v>
+        <v>0.0001823993201427494</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>167.1927829722882</v>
+        <v>12.5841275584994</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001823993201427494</v>
+        <v>1.055441121383015</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>12.5841275584994</v>
+        <v>0.0288848049305504</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.055441121383015</v>
+        <v>2.744007693137246</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0288848049305504</v>
+        <v>0.9592679757196987</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.744007693137246</v>
+        <v>1.307942018359532</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9592679757196987</v>
+        <v>84</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.307942018359532</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.6551182433742612</v>
       </c>
     </row>
@@ -2511,72 +2361,66 @@
         <v>6.575550808948047e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.9797073323462051</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.06900077081911249</v>
+        <v>6.942221945500463e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.03429528254303913</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>6.942221945500463e-06</v>
+        <v>0.1602539989956382</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.03429528254303913</v>
+        <v>0.02685680552843268</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1602539989956382</v>
+        <v>1.908443502227898</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02685680552843268</v>
+        <v>2.154363009602086</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.919539389877352</v>
+        <v>4.432220200296234</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.154363009602086</v>
+        <v>1.823303637870556e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.432220200296234</v>
+        <v>276979562.3083799</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.823303637870556e-15</v>
+        <v>4.346895180074272e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>276979562.3083799</v>
+        <v>139.8796212706782</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.346895180074272e-07</v>
+        <v>0.0001616977884659841</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>139.8796212706782</v>
+        <v>10.97470785314075</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001616977884659841</v>
+        <v>1.171251913954008</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.97470785314075</v>
+        <v>0.01947556278859844</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.171251913954008</v>
+        <v>3.068141127857719</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01947556278859844</v>
+        <v>0.9596565140426706</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.068141127857719</v>
+        <v>1.278894984024154</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9596565140426706</v>
+        <v>84</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.278894984024154</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.6857499480641129</v>
       </c>
     </row>
@@ -2591,72 +2435,66 @@
         <v>6.387431162628799e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.064964767261911</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.2243199184870521</v>
+        <v>6.939861665486935e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.03891078031004597</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>6.939861665486935e-06</v>
+        <v>0.1652477884043759</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.03891078031004597</v>
+        <v>0.02881834934211602</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1652477884043759</v>
+        <v>1.909882607949297</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02881834934211602</v>
+        <v>2.127952271233408</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.918614649040582</v>
+        <v>4.332140182662529</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.127952271233408</v>
+        <v>1.908519726399831e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.332140182662529</v>
+        <v>263066724.2618164</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.908519726399831e-15</v>
+        <v>4.57655210648236e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>263066724.2618164</v>
+        <v>132.0773926960929</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.57655210648236e-07</v>
+        <v>0.0001361091569498359</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>132.0773926960929</v>
+        <v>8.966247125234235</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001361091569498359</v>
+        <v>1.392676783295452</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.966247125234235</v>
+        <v>0.01094230342026392</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.392676783295452</v>
+        <v>3.337629227283305</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01094230342026392</v>
+        <v>0.9578008373977765</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.337629227283305</v>
+        <v>1.317471772342239</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9578008373977765</v>
+        <v>84</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.317471772342239</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.6430616176888168</v>
       </c>
     </row>
@@ -2671,72 +2509,66 @@
         <v>6.17721107126687e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.155445757785726</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.5672170398120917</v>
+        <v>6.937234421283136e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.04481370276402646</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>6.937234421283136e-06</v>
+        <v>0.1716757346241802</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04481370276402646</v>
+        <v>0.0314780430003403</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1716757346241802</v>
+        <v>1.90466450002209</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.0314780430003403</v>
+        <v>2.076499821124656</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.9117917103841</v>
+        <v>4.522848009889798</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.076499821124656</v>
+        <v>1.750965821773096e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.522848009889798</v>
+        <v>273049405.794456</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.750965821773096e-15</v>
+        <v>4.394026272933308e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>273049405.794456</v>
+        <v>130.5449692951061</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>4.394026272933308e-07</v>
+        <v>0.000120170165193028</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>130.5449692951061</v>
+        <v>8.553144593713013</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.000120170165193028</v>
+        <v>1.304740786943294</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.553144593713013</v>
+        <v>0.00879120254583823</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.304740786943294</v>
+        <v>3.357268528644884</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.00879120254583823</v>
+        <v>0.9583109123235273</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.357268528644884</v>
+        <v>1.35760317953099</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9583109123235273</v>
+        <v>91</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.35760317953099</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.6058446663639159</v>
       </c>
     </row>
@@ -2751,72 +2583,66 @@
         <v>5.944812496907962e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.246042918938633</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.9584915275808732</v>
+        <v>6.93433430360386e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.05096789314998069</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>6.93433430360386e-06</v>
+        <v>0.1788445834783535</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05096789314998069</v>
+        <v>0.03458092759043183</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1788445834783535</v>
+        <v>1.901760533016655</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03458092759043183</v>
+        <v>2.222182199572128</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.911998164110992</v>
+        <v>4.581932688746614</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.222182199572128</v>
+        <v>1.706099070081e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.581932688746614</v>
+        <v>282857336.3503661</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.706099070081e-15</v>
+        <v>4.248846974079581e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>282857336.3503661</v>
+        <v>136.5020396987041</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>4.248846974079581e-07</v>
+        <v>0.0001222396502364879</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>136.5020396987041</v>
+        <v>8.623880916800241</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001222396502364879</v>
+        <v>1.253551083971713</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.623880916800241</v>
+        <v>0.009091124397113773</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.253551083971713</v>
+        <v>3.27947552708692</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.009091124397113773</v>
+        <v>0.9589874467080961</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.27947552708692</v>
+        <v>1.334817091033304</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9589874467080961</v>
+        <v>91</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.334817091033304</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.5810647645066056</v>
       </c>
     </row>
@@ -2831,72 +2657,66 @@
         <v>5.678400231007875e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.325049253450615</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1.383012900893354</v>
+        <v>6.931174016617733e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.05790907295226523</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>6.931174016617733e-06</v>
+        <v>0.1863009575558533</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05790907295226523</v>
+        <v>0.03805973726255635</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1863009575558533</v>
+        <v>1.89968602202361</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03805973726255635</v>
+        <v>2.391684940704441</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.913601892930446</v>
+        <v>4.466853383730196</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.391684940704441</v>
+        <v>1.795139736556633e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.466853383730196</v>
+        <v>273175948.90735</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.795139736556633e-15</v>
+        <v>4.399877685607903e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>273175948.90735</v>
+        <v>133.96248066965</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.399877685607903e-07</v>
+        <v>0.0001389892815216425</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>133.96248066965</v>
+        <v>8.354158661685169</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001389892815216425</v>
+        <v>1.365745748755713</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.354158661685169</v>
+        <v>0.009700335341613475</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.365745748755713</v>
+        <v>3.228455258932157</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.009700335341613475</v>
+        <v>0.9613184089289275</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.228455258932157</v>
+        <v>1.344319807664525</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9613184089289275</v>
+        <v>76</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.344319807664525</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.5558915020666829</v>
       </c>
     </row>
@@ -2911,72 +2731,66 @@
         <v>5.355705346412584e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.369900102208075</v>
+        <v>2.409563521923594e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1.77752395064026</v>
+        <v>6.927783355331923e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.409563521923594e-07</v>
+        <v>-0.06470242588646506</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>6.927783355331923e-06</v>
+        <v>0.1962407226207903</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.06470242588646506</v>
+        <v>0.0426970494845476</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1962407226207903</v>
+        <v>1.893667527113232</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.0426970494845476</v>
+        <v>2.197861134785655</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.909501494377442</v>
+        <v>4.403503246928805</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.197861134785655</v>
+        <v>1.847162121283167e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.403503246928805</v>
+        <v>265877484.1218325</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.847162121283167e-15</v>
+        <v>4.511660934569066e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>265877484.1218325</v>
+        <v>130.5774356209102</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>4.511660934569066e-07</v>
+        <v>0.0001559129528201037</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>130.5774356209102</v>
+        <v>9.390459547352396</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001559129528201037</v>
+        <v>1.278236341486344</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.390459547352396</v>
+        <v>0.01374851807571991</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.278236341486344</v>
+        <v>3.084152732201061</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01374851807571991</v>
+        <v>0.9630909980148483</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.084152732201061</v>
+        <v>1.33637265036071</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9630909980148483</v>
+        <v>70</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.33637265036071</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.5846099851102482</v>
       </c>
     </row>
@@ -2991,72 +2805,66 @@
         <v>4.982487096582945e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.36132657272768</v>
+        <v>2.386500737600439e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2.057281010209886</v>
+        <v>6.924305499959156e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.386500737600439e-07</v>
+        <v>-0.06944031055829655</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>6.924305499959156e-06</v>
+        <v>0.2108809260609796</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.06944031055829655</v>
+        <v>0.04929250167307666</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.2108809260609796</v>
+        <v>1.895433942548032</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.04929250167307666</v>
+        <v>2.038164360341745</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.913296808547374</v>
+        <v>4.581932203495326</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.038164360341745</v>
+        <v>1.706099431451173e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.581932203495326</v>
+        <v>294400226.1662155</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.706099431451173e-15</v>
+        <v>4.093981222203976e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>294400226.1662155</v>
+        <v>147.8701852147632</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.093981222203976e-07</v>
+        <v>0.0001660427412461119</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>147.8701852147632</v>
+        <v>11.31145913456028</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001660427412461119</v>
+        <v>1.109361987787271</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.31145913456028</v>
+        <v>0.02124502059127355</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.109361987787271</v>
+        <v>2.893534053233534</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02124502059127355</v>
+        <v>0.9647340157807466</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.893534053233534</v>
+        <v>1.29089917500725</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9647340157807466</v>
+        <v>70</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.29089917500725</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.590719698379745</v>
       </c>
     </row>
@@ -3071,72 +2879,66 @@
         <v>4.58284105699735e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.291532532980107</v>
+        <v>2.309964920625682e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2.172231529415406</v>
+        <v>6.920919254718599e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.309964920625682e-07</v>
+        <v>-0.07166302362251789</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>6.920919254718599e-06</v>
+        <v>0.2296882575529153</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.07166302362251789</v>
+        <v>0.05788901756005604</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2296882575529153</v>
+        <v>1.897423239547575</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.05788901756005604</v>
+        <v>2.112850035369188</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.911514946485683</v>
+        <v>4.659737124550722</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.112850035369188</v>
+        <v>1.64402062575016e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.659737124550722</v>
+        <v>301668288.5605253</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.64402062575016e-15</v>
+        <v>3.995338979255394e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>301668288.5605253</v>
+        <v>149.6120524158133</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>3.995338979255394e-07</v>
+        <v>0.0001623516237004982</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>149.6120524158133</v>
+        <v>11.94013711741209</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001623516237004982</v>
+        <v>1.064487381067172</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>11.94013711741209</v>
+        <v>0.02314596354192037</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.064487381067172</v>
+        <v>2.828965575869072</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02314596354192037</v>
+        <v>0.9643585079333831</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.828965575869072</v>
+        <v>1.318099959091563</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9643585079333831</v>
+        <v>70</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.318099959091563</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.5546629575760436</v>
       </c>
     </row>
@@ -3151,72 +2953,66 @@
         <v>4.164785992012682e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1.144510488552273</v>
+        <v>2.204258159327135e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2.041032651703356</v>
+        <v>6.917799440213455e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.204258159327135e-07</v>
+        <v>-0.07017755543563013</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>6.917799440213455e-06</v>
+        <v>0.2556033513020771</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.07017755543563013</v>
+        <v>0.07024508035303981</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.2556033513020771</v>
+        <v>1.895618192014413</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.07024508035303981</v>
+        <v>2.339110977835408</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.904788817963253</v>
+        <v>4.395773440741531</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.339110977835408</v>
+        <v>1.980921570258481e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.395773440741531</v>
+        <v>251763306.7102983</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.980921570258481e-15</v>
+        <v>4.770173717439931e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>251763306.7102983</v>
+        <v>125.5602434713517</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>4.770173717439931e-07</v>
+        <v>0.000144330811078922</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>125.5602434713517</v>
+        <v>10.35103223436149</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.000144330811078922</v>
+        <v>1.134274501832179</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>10.35103223436149</v>
+        <v>0.01546416141629561</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.134274501832179</v>
+        <v>3.066122760635307</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01546416141629561</v>
+        <v>0.9642043678133866</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.066122760635307</v>
+        <v>1.324465420080102</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9642043678133866</v>
+        <v>70</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.324465420080102</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.5327853293489933</v>
       </c>
     </row>
@@ -3231,72 +3027,66 @@
         <v>3.74660747644074e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.8967244938590152</v>
+        <v>2.046164512788087e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1.575162418659166</v>
+        <v>6.91510743670434e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.046164512788087e-07</v>
+        <v>-0.06573457799937787</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>6.91510743670434e-06</v>
+        <v>0.2849679602372687</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.06573457799937787</v>
+        <v>0.08550897574288457</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.2849679602372687</v>
+        <v>1.876585685626134</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.08550897574288457</v>
+        <v>2.191699578758837</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.869914702917309</v>
+        <v>4.615902710992982</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.191699578758837</v>
+        <v>2.432691076353906e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.615902710992982</v>
+        <v>201510632.663543</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.432691076353906e-15</v>
+        <v>5.950587793835062e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>201510632.663543</v>
+        <v>98.78315552215942</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>5.950587793835062e-07</v>
+        <v>0.0001623637458962858</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>98.78315552215942</v>
+        <v>8.425087927380904</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001623637458962858</v>
+        <v>1.720656497857099</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.425087927380904</v>
+        <v>0.01152492071660381</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.720656497857099</v>
+        <v>3.14900019787845</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01152492071660381</v>
+        <v>0.963253547083659</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.14900019787845</v>
+        <v>1.471210761119846</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.963253547083659</v>
+        <v>49</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.471210761119846</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.4520070582054152</v>
       </c>
     </row>
@@ -3311,72 +3101,66 @@
         <v>3.377116794956072e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.5782187505186537</v>
+        <v>1.833680310533804e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.9055627334906662</v>
+        <v>6.912845029877968e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.833680310533804e-07</v>
+        <v>-0.0617753752466411</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>6.912845029877968e-06</v>
+        <v>0.3082804022344058</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.0617753752466411</v>
+        <v>0.09882328708529876</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.3082804022344058</v>
+        <v>1.880123828300329</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.09882328708529876</v>
+        <v>2.125904015678012</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.871295973405185</v>
+        <v>4.146762116007475</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.125904015678012</v>
+        <v>3.272396557493442e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.146762116007475</v>
+        <v>149509864.8394532</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.272396557493442e-15</v>
+        <v>8.008534061503414e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>149509864.8394532</v>
+        <v>73.14853369590462</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>8.008534061503414e-07</v>
+        <v>0.0001736411274613306</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>73.14853369590462</v>
+        <v>8.349755738297119</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001736411274613306</v>
+        <v>1.843308464281326</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.349755738297119</v>
+        <v>0.01210598520802873</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.843308464281326</v>
+        <v>3.101955686384039</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01210598520802873</v>
+        <v>0.9618168137334302</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.101955686384039</v>
+        <v>1.472307279067316</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9618168137334302</v>
+        <v>45</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.472307279067316</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.3775113604395068</v>
       </c>
     </row>
@@ -3391,72 +3175,66 @@
         <v>3.091490907862747e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2860328907261632</v>
+        <v>1.60864429868424e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.3587948786804627</v>
+        <v>6.910890497318035e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.60864429868424e-07</v>
+        <v>-0.05986285457662395</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>6.910890497318035e-06</v>
+        <v>0.3268796096079807</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05986285457662395</v>
+        <v>0.1103933456954809</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.3268796096079807</v>
+        <v>1.877647486510586</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.1103933456954809</v>
+        <v>2.200073130997588</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.867758481226657</v>
+        <v>3.970763522592975</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.200073130997588</v>
+        <v>3.568914341547675e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.970763522592975</v>
+        <v>134500322.5418686</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.568914341547675e-15</v>
+        <v>8.870243690567804e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>134500322.5418686</v>
+        <v>64.56286231999093</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>8.870243690567804e-07</v>
+        <v>0.0001447854975684912</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>64.56286231999093</v>
+        <v>9.179394350662148</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001447854975684912</v>
+        <v>1.34772384370004</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.179394350662148</v>
+        <v>0.01219981144393999</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.34772384370004</v>
+        <v>3.056362498865726</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01219981144393999</v>
+        <v>0.9622250682343371</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.056362498865726</v>
+        <v>1.493301282885529</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9622250682343371</v>
+        <v>32</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.493301282885529</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.3300885822597797</v>
       </c>
     </row>
@@ -3471,72 +3249,66 @@
         <v>2.895461736723244e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.08989416520744982</v>
+        <v>1.420632122387098e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.06440487442567067</v>
+        <v>6.909093897485218e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.420632122387098e-07</v>
+        <v>-0.06135677808909658</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>6.909093897485218e-06</v>
+        <v>0.3451944313156472</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.06135677808909658</v>
+        <v>0.1228859025539457</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.3451944313156472</v>
+        <v>1.873348821274355</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.1228859025539457</v>
+        <v>2.124243492588786</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.858893836290832</v>
+        <v>3.937320661084483</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.124243492588786</v>
+        <v>3.629799195286395e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.937320661084483</v>
+        <v>127546512.4453237</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.629799195286395e-15</v>
+        <v>9.331947934304017e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>127546512.4453237</v>
+        <v>59.04998288444428</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>9.331947934304017e-07</v>
+        <v>0.0001370535030134566</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>59.04998288444428</v>
+        <v>9.69079631570574</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001370535030134566</v>
+        <v>1.132352148569058</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.69079631570574</v>
+        <v>0.01287090460287821</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.132352148569058</v>
+        <v>2.884147720923782</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01287090460287821</v>
+        <v>0.9617247289123085</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.884147720923782</v>
+        <v>1.501156380940766</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9617247289123085</v>
+        <v>13</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.501156380940766</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.295461670751701</v>
       </c>
     </row>
@@ -3551,72 +3323,66 @@
         <v>2.77489605453134e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.04035274578673795</v>
+        <v>1.314373913494103e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.1333813623683802</v>
+        <v>6.907277557765097e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.314373913494103e-07</v>
+        <v>-0.06795705249898182</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>6.907277557765097e-06</v>
+        <v>0.3647498959380303</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.06795705249898182</v>
+        <v>0.1376317899898198</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.3647498959380303</v>
+        <v>1.871120643849998</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.1376317899898198</v>
+        <v>2.151489940671055</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.861396127142267</v>
+        <v>3.946684634146264</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>2.151489940671055</v>
+        <v>3.612595378322258e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.946684634146264</v>
+        <v>129913721.5634545</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>3.612595378322258e-15</v>
+        <v>9.141404864679231e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>129913721.5634545</v>
+        <v>60.97184962460334</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>9.141404864679231e-07</v>
+        <v>0.0001389472263722316</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>60.97184962460334</v>
+        <v>9.544518682597532</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001389472263722316</v>
+        <v>1.141315904336218</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>9.544518682597532</v>
+        <v>0.01265779176332687</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.141315904336218</v>
+        <v>2.805466233635137</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01265779176332687</v>
+        <v>0.9612504690842039</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.805466233635137</v>
+        <v>1.483511494825887</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9612504690842039</v>
+        <v>17</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.483511494825887</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2844135566963769</v>
       </c>
     </row>
@@ -3631,72 +3397,66 @@
         <v>2.715235623644832e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.1881622415209589</v>
+        <v>1.248914012160001e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.3325215277411058</v>
+        <v>6.905309348741335e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.248914012160001e-07</v>
+        <v>-0.07514932745598085</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>6.905309348741335e-06</v>
+        <v>0.3779556753744372</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.07514932745598085</v>
+        <v>0.1484774921373839</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.3779556753744372</v>
+        <v>1.871664114542779</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.1484774921373839</v>
+        <v>1.956009538585583</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.861536216306033</v>
+        <v>3.94592132038391</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.956009538585583</v>
+        <v>3.613993181400908e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.94592132038391</v>
+        <v>130288488.6463016</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>3.613993181400908e-15</v>
+        <v>9.116850538055711e-07</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>130288488.6463016</v>
+        <v>61.34786050295209</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>9.116850538055711e-07</v>
+        <v>0.0001404591745932833</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>61.34786050295209</v>
+        <v>8.528014118486961</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001404591745932833</v>
+        <v>1.258603056977327</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>8.528014118486961</v>
+        <v>0.0102151778747514</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.258603056977327</v>
+        <v>2.989536201647705</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.0102151778747514</v>
+        <v>0.9615956576889135</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.989536201647705</v>
+        <v>1.499275847046489</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9615956576889135</v>
+        <v>17</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.499275847046489</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2778206156574069</v>
       </c>
     </row>
@@ -3711,72 +3471,66 @@
         <v>2.715073181424795e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.3575641245887832</v>
+        <v>1.23524077761318e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.4153037421955825</v>
+        <v>6.903247047839825e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.23524077761318e-07</v>
+        <v>-0.07585380692701074</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>6.903247047839825e-06</v>
+        <v>0.3786032770794165</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.07585380692701074</v>
+        <v>0.1490836389860344</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.3786032770794165</v>
+        <v>1.874041866463347</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.1490836389860344</v>
+        <v>2.018424146745613</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.870081995386485</v>
+        <v>3.909984351267393</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.018424146745613</v>
+        <v>3.680731459428419e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.909984351267393</v>
+        <v>138309783.0616438</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>3.680731459428419e-15</v>
+        <v>8.665490933377443e-07</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>138309783.0616438</v>
+        <v>70.41090613667932</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>8.665490933377443e-07</v>
+        <v>0.0001685525176995497</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>70.41090613667932</v>
+        <v>8.340921716222631</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001685525176995497</v>
+        <v>1.697746551949477</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>8.340921716222631</v>
+        <v>0.01172636300789842</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.697746551949477</v>
+        <v>3.016029286130823</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01172636300789842</v>
+        <v>0.9624752495897194</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.016029286130823</v>
+        <v>1.478041678788059</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9624752495897194</v>
+        <v>17</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.478041678788059</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.262743458802459</v>
       </c>
     </row>
@@ -3791,72 +3545,66 @@
         <v>2.755336498549255e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.4860583237982074</v>
+        <v>1.17073191402676e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.4052837174239068</v>
+        <v>6.901236213545991e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.17073191402676e-07</v>
+        <v>-0.07070750643481617</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>6.901236213545991e-06</v>
+        <v>0.3718890158348673</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.07070750643481617</v>
+        <v>0.1432969184604615</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.3718890158348673</v>
+        <v>1.864237573693554</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.1432969184604615</v>
+        <v>2.136814062590607</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.867699822682609</v>
+        <v>3.851032639799801</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>2.136814062590607</v>
+        <v>3.794283458987155e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>3.851032639799801</v>
+        <v>131457417.2327555</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>3.794283458987155e-15</v>
+        <v>9.08763854992443e-07</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>131457417.2327555</v>
+        <v>65.56921182730417</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>9.08763854992443e-07</v>
+        <v>0.0001741111541968241</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>65.56921182730417</v>
+        <v>9.437628027175151</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001741111541968241</v>
+        <v>1.515292002419093</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>9.437628027175151</v>
+        <v>0.01550787553706012</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.515292002419093</v>
+        <v>2.95176325730318</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01550787553706012</v>
+        <v>0.960158565678605</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.95176325730318</v>
+        <v>1.455116350883377</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.960158565678605</v>
+        <v>17</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.455116350883377</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2544631846115715</v>
       </c>
     </row>
@@ -3871,72 +3619,66 @@
         <v>2.80154464176059e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.5468290905046514</v>
+        <v>1.10698197267951e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.4405126996413937</v>
+        <v>6.899362553562473e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.10698197267951e-07</v>
+        <v>-0.06427411701685219</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6.899362553562473e-06</v>
+        <v>0.3657140019151431</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.06427411701685219</v>
+        <v>0.1378749372341759</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.3657140019151431</v>
+        <v>1.866584561306935</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.1378749372341759</v>
+        <v>2.122133854249647</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.865559269641028</v>
+        <v>3.850182815138498</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>2.122133854249647</v>
+        <v>3.795958616593193e-15</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3.850182815138498</v>
+        <v>132454273.4518021</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>3.795958616593193e-15</v>
+        <v>9.029305410198701e-07</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>132454273.4518021</v>
+        <v>66.59680873717016</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>9.029305410198701e-07</v>
+        <v>0.0001500754972575412</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>66.59680873717016</v>
+        <v>10.60605897213148</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001500754972575412</v>
+        <v>1.126552696941861</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>10.60605897213148</v>
+        <v>0.01688176561031705</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.126552696941861</v>
+        <v>2.814503759012011</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01688176561031705</v>
+        <v>0.9601295710954704</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.814503759012011</v>
+        <v>1.468719722589483</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9601295710954704</v>
+        <v>17</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.468719722589483</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2643678308137731</v>
       </c>
     </row>
@@ -3951,72 +3693,66 @@
         <v>2.845385010727917e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.5575886959844994</v>
+        <v>1.095106977101487e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.5185820356097426</v>
+        <v>6.897628588223332e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.095106977101487e-07</v>
+        <v>-0.05863793166385725</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>6.897628588223332e-06</v>
+        <v>0.3596436184125419</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.05863793166385725</v>
+        <v>0.1327774643645159</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.3596436184125419</v>
+        <v>1.871647515796727</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.1327774643645159</v>
+        <v>2.049188477605919</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.86792118816963</v>
+        <v>3.830812054001171</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2.049188477605919</v>
+        <v>3.834444719729554e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.830812054001171</v>
+        <v>132141583.2062347</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>3.834444719729554e-15</v>
+        <v>9.051538382065459e-07</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>132141583.2062347</v>
+        <v>66.95476540716909</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>9.051538382065459e-07</v>
+        <v>0.0001509141140692385</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>66.95476540716909</v>
+        <v>10.18212851287039</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001509141140692385</v>
+        <v>1.133462890502271</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>10.18212851287039</v>
+        <v>0.01564613261142616</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.133462890502271</v>
+        <v>2.753746033085719</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01564613261142616</v>
+        <v>0.9603556911600876</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.753746033085719</v>
+        <v>1.486489995423038</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9603556911600876</v>
+        <v>17</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.486489995423038</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.2555038138918926</v>
       </c>
     </row>
@@ -4393,7 +4129,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.394439120056752</v>
+        <v>1.363232630519634</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.798283149031328</v>
@@ -4482,7 +4218,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.399928180287541</v>
+        <v>1.374259068773178</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.345372772924486</v>
@@ -4571,7 +4307,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.406574964337074</v>
+        <v>1.382013734964617</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.881879371397774</v>
@@ -4660,7 +4396,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.407606252577966</v>
+        <v>1.377811674260235</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.43408553727979</v>
@@ -4749,7 +4485,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.429301086739739</v>
+        <v>1.401931996395668</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.40737830688134</v>
@@ -4838,7 +4574,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.430533681763126</v>
+        <v>1.400099751371583</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.63424430733483</v>
@@ -4927,7 +4663,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.422390050340247</v>
+        <v>1.390518762465882</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.641176564441983</v>
@@ -5016,7 +4752,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.432313489305951</v>
+        <v>1.403972974095874</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.816644700682613</v>
@@ -5105,7 +4841,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.436105289204056</v>
+        <v>1.402436013478894</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.656339692362269</v>
@@ -5194,7 +4930,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.44071860203644</v>
+        <v>1.40484472459015</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.653034750398347</v>
@@ -5283,7 +5019,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.434248611575875</v>
+        <v>1.400193798348345</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.754967852505858</v>
@@ -5372,7 +5108,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.4644482054897</v>
+        <v>1.426101810277694</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.711234111032302</v>
@@ -5461,7 +5197,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.481742787930331</v>
+        <v>1.445510613106984</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.676610187980842</v>
@@ -5550,7 +5286,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.695313053857117</v>
+        <v>1.700249147320809</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.191595081715499</v>
@@ -5639,7 +5375,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.698869012920999</v>
+        <v>1.701082829751131</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.190487437720125</v>
@@ -5728,7 +5464,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.697956463966902</v>
+        <v>1.702785466679989</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.190108575506469</v>
@@ -5817,7 +5553,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.689435423806276</v>
+        <v>1.693719051679942</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.191598321151662</v>
@@ -5906,7 +5642,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.657913874716677</v>
+        <v>1.667380767209815</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.195101888115216</v>
@@ -5995,7 +5731,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.624339307735905</v>
+        <v>1.635716243251367</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.198441148728793</v>
@@ -6084,7 +5820,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.619445731057116</v>
+        <v>1.630298256055007</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.197344409547795</v>
@@ -6173,7 +5909,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.620952367151321</v>
+        <v>1.633178501885934</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.196471934849095</v>
@@ -6262,7 +5998,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.609093539584641</v>
+        <v>1.621504615109023</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.197781541499107</v>
@@ -6351,7 +6087,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.605876211941969</v>
+        <v>1.61658260651107</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.199757752492268</v>
@@ -6440,7 +6176,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.613418687412628</v>
+        <v>1.627953328824235</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.199589085537478</v>
@@ -6529,7 +6265,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.611017792094942</v>
+        <v>1.625308217728584</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.19919581533924</v>
@@ -6618,7 +6354,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.612661021786892</v>
+        <v>1.625058877291758</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.200055453006374</v>
@@ -6707,7 +6443,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.596506596078559</v>
+        <v>1.608867956277735</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.204090518194028</v>
@@ -6796,7 +6532,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.599169893354054</v>
+        <v>1.613171558752076</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.208274984563752</v>
@@ -6885,7 +6621,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.394573241836482</v>
+        <v>1.373437980074541</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.336947468060083</v>
@@ -6974,7 +6710,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.394142346727855</v>
+        <v>1.381909671805343</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.630246379107679</v>
@@ -7063,7 +6799,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.38454355352768</v>
+        <v>1.371661366646343</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.373146458703662</v>
@@ -7152,7 +6888,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.385631125380336</v>
+        <v>1.368617928617124</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.340660033195506</v>
@@ -7241,7 +6977,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.402234141582934</v>
+        <v>1.389313374901376</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.62123777649234</v>
@@ -7330,7 +7066,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.425738670690386</v>
+        <v>1.416397993667482</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.839914571664482</v>
@@ -7419,7 +7155,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.426805123904773</v>
+        <v>1.416263200678424</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.670105952844694</v>
@@ -7508,7 +7244,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.433145118240391</v>
+        <v>1.422805205518526</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.730648816181902</v>
@@ -7597,7 +7333,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.442695429312779</v>
+        <v>1.434692104092462</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.82023418297309</v>
@@ -7686,7 +7422,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.418633132966051</v>
+        <v>1.417473666778145</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.779344787195714</v>
@@ -7775,7 +7511,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.392237961555533</v>
+        <v>1.387217363811835</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.769912760222688</v>
@@ -7864,7 +7600,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.388599687586122</v>
+        <v>1.385162440173032</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.856191207626992</v>
@@ -7953,7 +7689,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.394958653953097</v>
+        <v>1.397702407321715</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.798359421176976</v>
@@ -8042,7 +7778,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.41529410109076</v>
+        <v>1.415344953285441</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.645913864047739</v>
@@ -8131,7 +7867,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.393361293198073</v>
+        <v>1.387936473790012</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.486487095684365</v>
@@ -8220,7 +7956,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.371122959937872</v>
+        <v>1.363158143745846</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.491230959819286</v>
@@ -8309,7 +8045,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.375697600151086</v>
+        <v>1.363006235334886</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.464201377994176</v>
@@ -8398,7 +8134,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.392490144622579</v>
+        <v>1.374584285753253</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.357195853813654</v>
@@ -8487,7 +8223,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.399985014393732</v>
+        <v>1.385423779407165</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.55019276139472</v>
@@ -8576,7 +8312,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.390586412352503</v>
+        <v>1.377581764567193</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.510531183021193</v>
@@ -8665,7 +8401,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.405707909328934</v>
+        <v>1.391430077538648</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.48552385462484</v>
@@ -8754,7 +8490,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.405932082334174</v>
+        <v>1.392009790868349</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.482419457747181</v>
@@ -8843,7 +8579,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.401928819821487</v>
+        <v>1.386925338576592</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.39511979197233</v>
@@ -8932,7 +8668,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.425548852307495</v>
+        <v>1.406547364994952</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.279903256506103</v>
@@ -9021,7 +8757,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.432322496333304</v>
+        <v>1.408791066909491</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.284352505412918</v>
@@ -9110,7 +8846,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.466714697897005</v>
+        <v>1.451901436177234</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.333278540349453</v>
@@ -9199,7 +8935,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.465131854622078</v>
+        <v>1.450748695189932</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.323947210708996</v>
@@ -9288,7 +9024,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.44142927445207</v>
+        <v>1.424520340977879</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.398269456962045</v>
@@ -9377,7 +9113,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.431230427254169</v>
+        <v>1.418005156304156</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.335435112464949</v>
@@ -9466,7 +9202,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.434617753763999</v>
+        <v>1.411722640635718</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.485765892804825</v>
@@ -9555,7 +9291,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.434589730725925</v>
+        <v>1.409417060717208</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.463118974857967</v>
@@ -9644,7 +9380,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.414555068094699</v>
+        <v>1.380842399253781</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.505559720366136</v>
@@ -9733,7 +9469,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.406959988802177</v>
+        <v>1.373307690371668</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.482092744906804</v>
@@ -9822,7 +9558,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.390002047189834</v>
+        <v>1.359049910094593</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.262802194788691</v>
@@ -9911,7 +9647,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.402549190902938</v>
+        <v>1.368554079109217</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.347434675540833</v>
@@ -10000,7 +9736,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.40670388038281</v>
+        <v>1.376122726410621</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.487394107215786</v>
@@ -10089,7 +9825,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.398737077673442</v>
+        <v>1.370617925760761</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.579930535977645</v>
@@ -10178,7 +9914,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.397413919909212</v>
+        <v>1.371963737869618</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.573245760171087</v>
@@ -10267,7 +10003,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.395114706824164</v>
+        <v>1.3712263367412</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.381268562289987</v>
@@ -10356,7 +10092,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.402447719736517</v>
+        <v>1.378120582275877</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.26404229157971</v>
@@ -10445,7 +10181,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.387788985336257</v>
+        <v>1.362977300219137</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.367107434717738</v>
@@ -10534,7 +10270,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.38728564936154</v>
+        <v>1.363537170080532</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.253149619964621</v>
@@ -10623,7 +10359,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.407987684020034</v>
+        <v>1.387824083029659</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.400127706507623</v>
@@ -10712,7 +10448,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.422613931770022</v>
+        <v>1.404272693504819</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.442899825023213</v>
@@ -10801,7 +10537,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.435959395127797</v>
+        <v>1.422009454594002</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.516153753022399</v>
@@ -10890,7 +10626,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.453735245681227</v>
+        <v>1.441883362776342</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.211970847845938</v>
@@ -10979,7 +10715,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.464284993830649</v>
+        <v>1.455551810739066</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.596718704321682</v>
@@ -11068,7 +10804,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.47536216660111</v>
+        <v>1.470968749697042</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.194883358812377</v>
@@ -11157,7 +10893,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.485066146468058</v>
+        <v>1.478348011292086</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.932409906167434</v>
@@ -11246,7 +10982,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.47692375371248</v>
+        <v>1.472720765305154</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.765782312461695</v>
@@ -11335,7 +11071,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.477721246489348</v>
+        <v>1.464038641910729</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.571611686679292</v>
@@ -11424,7 +11160,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.487957686553442</v>
+        <v>1.469220939230868</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.813121029545944</v>
@@ -11513,7 +11249,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.489438795864851</v>
+        <v>1.466560592485785</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.885847272197583</v>
@@ -11602,7 +11338,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.497018134580433</v>
+        <v>1.470560357971074</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.834565959209326</v>
@@ -11691,7 +11427,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.496564843970453</v>
+        <v>1.470521618072091</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.445979490741773</v>
@@ -11780,7 +11516,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.506454416689989</v>
+        <v>1.47109197311524</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.691895692431259</v>
@@ -11869,7 +11605,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.525976288492357</v>
+        <v>1.484115229392088</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.873004848843315</v>
@@ -11958,7 +11694,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.498287188192659</v>
+        <v>1.452397668199344</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.721401133655197</v>
@@ -12047,7 +11783,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.478964232319555</v>
+        <v>1.436835779056254</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.959672628521547</v>
@@ -12333,7 +12069,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.374962500146143</v>
+        <v>1.34025227427846</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.825991610232462</v>
@@ -12422,7 +12158,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.385627697097807</v>
+        <v>1.353652430562684</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.426915144714275</v>
@@ -12511,7 +12247,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.39227938052181</v>
+        <v>1.357165739165834</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.872153276513816</v>
@@ -12600,7 +12336,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.401383681746007</v>
+        <v>1.364683932553683</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.39510355007178</v>
@@ -12689,7 +12425,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.412613450156305</v>
+        <v>1.37811204314241</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.417896040689655</v>
@@ -12778,7 +12514,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.417523009268124</v>
+        <v>1.38174704022087</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.634375825029551</v>
@@ -12867,7 +12603,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.425020588724268</v>
+        <v>1.390067443248969</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.524240293743862</v>
@@ -12956,7 +12692,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.447461400399529</v>
+        <v>1.415190844716996</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.810080486046422</v>
@@ -13045,7 +12781,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.466750399025506</v>
+        <v>1.426090348081057</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.617267375036658</v>
@@ -13134,7 +12870,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.475045052976056</v>
+        <v>1.425576180417738</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.750631892614658</v>
@@ -13223,7 +12959,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.465925618153404</v>
+        <v>1.418923811451476</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.702610354385041</v>
@@ -13312,7 +13048,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.491825797525268</v>
+        <v>1.442440097287623</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.754463464711807</v>
@@ -13401,7 +13137,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.510610988147685</v>
+        <v>1.454665642564038</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.635232897113572</v>
@@ -13490,7 +13226,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.636441999508576</v>
+        <v>1.607114523705658</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.271707491383529</v>
@@ -13579,7 +13315,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.636139584122259</v>
+        <v>1.60747324796341</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.277835655265161</v>
@@ -13668,7 +13404,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.631546155863642</v>
+        <v>1.607000702179872</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.279122747826001</v>
@@ -13757,7 +13493,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.612390874541957</v>
+        <v>1.592188241044961</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.281045421519345</v>
@@ -13846,7 +13582,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.580677441630719</v>
+        <v>1.566348992502959</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.285006869416911</v>
@@ -13935,7 +13671,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.546850822512344</v>
+        <v>1.532772433673284</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.288424539918914</v>
@@ -14024,7 +13760,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.540402158680749</v>
+        <v>1.525620918270523</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.289109928348336</v>
@@ -14113,7 +13849,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.538853044425641</v>
+        <v>1.525566917743472</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.293487964060719</v>
@@ -14202,7 +13938,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.529520331203006</v>
+        <v>1.513797063205004</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.295818572161614</v>
@@ -14291,7 +14027,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.52157995164508</v>
+        <v>1.504313707260016</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.292398346002265</v>
@@ -14380,7 +14116,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.521372296429317</v>
+        <v>1.50899524620303</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.292462552254562</v>
@@ -14469,7 +14205,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.520383422210082</v>
+        <v>1.507756597250778</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.292877128282083</v>
@@ -14558,7 +14294,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.522576833038569</v>
+        <v>1.507870022432409</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.294191938705507</v>
@@ -14647,7 +14383,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.507232257910293</v>
+        <v>1.493958499442356</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.303400336235333</v>
@@ -14736,7 +14472,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.505179291344077</v>
+        <v>1.497402500141514</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.307517535574295</v>
@@ -14825,7 +14561,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.387923880390433</v>
+        <v>1.357017985299369</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.579610506079427</v>
@@ -14914,7 +14650,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.387046127240071</v>
+        <v>1.358022931350297</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.634691694898536</v>
@@ -15003,7 +14739,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.376411365828069</v>
+        <v>1.346225067734715</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.312789010804506</v>
@@ -15092,7 +14828,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.371868520016876</v>
+        <v>1.337583173067821</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.357724811272555</v>
@@ -15181,7 +14917,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.379494592758791</v>
+        <v>1.347162228775585</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.639452639859994</v>
@@ -15270,7 +15006,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.402080435861516</v>
+        <v>1.369700800054831</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.755988833550341</v>
@@ -15359,7 +15095,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.402786497019034</v>
+        <v>1.369748746356788</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.594778234038836</v>
@@ -15448,7 +15184,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.402238998970174</v>
+        <v>1.371488605693345</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.576100482231511</v>
@@ -15537,7 +15273,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.409964284681166</v>
+        <v>1.383536986148675</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.60041417295602</v>
@@ -15626,7 +15362,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.387196112958417</v>
+        <v>1.367281466949125</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.569707841112453</v>
@@ -15715,7 +15451,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.363652569018913</v>
+        <v>1.341108664661214</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.666302887684445</v>
@@ -15804,7 +15540,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.357343526700363</v>
+        <v>1.337959648379527</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.765135862581799</v>
@@ -15893,7 +15629,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.363916018786394</v>
+        <v>1.348134490311644</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.69519944374165</v>
@@ -15982,7 +15718,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.386831393130407</v>
+        <v>1.365457851770894</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.486628068251783</v>
@@ -16071,7 +15807,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.368810882889421</v>
+        <v>1.347579437845075</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.539916503421615</v>
@@ -16160,7 +15896,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.344005988916006</v>
+        <v>1.323211232537668</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.47662683677388</v>
@@ -16249,7 +15985,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.354976989757433</v>
+        <v>1.332225714721588</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.406935122642044</v>
@@ -16338,7 +16074,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.373171876129218</v>
+        <v>1.344974734237538</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.353657899018074</v>
@@ -16427,7 +16163,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.385355134076304</v>
+        <v>1.360413135712639</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.43283817093307</v>
@@ -16516,7 +16252,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.388941482625188</v>
+        <v>1.365626271657511</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.551695299941068</v>
@@ -16605,7 +16341,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.402807374903282</v>
+        <v>1.383793317386951</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.434167302105139</v>
@@ -16694,7 +16430,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.403176781936525</v>
+        <v>1.385887784346802</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.525499630055041</v>
@@ -16783,7 +16519,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.405295703024466</v>
+        <v>1.389173726604534</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.34881509318171</v>
@@ -16872,7 +16608,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.424340964303801</v>
+        <v>1.401486049694574</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.258166752516802</v>
@@ -16961,7 +16697,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.417872437808691</v>
+        <v>1.392652921202139</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.184641609883534</v>
@@ -17050,7 +16786,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.441842479841027</v>
+        <v>1.425293640711331</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.230952746534315</v>
@@ -17139,7 +16875,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.439775875083265</v>
+        <v>1.424211801704437</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.161616387627565</v>
@@ -17228,7 +16964,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.42143625346338</v>
+        <v>1.407305266922571</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.19631069218504</v>
@@ -17317,7 +17053,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.410985707542832</v>
+        <v>1.402815570215858</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.208727347268171</v>
@@ -17406,7 +17142,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.415919865491495</v>
+        <v>1.392614687640362</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.297596211233027</v>
@@ -17495,7 +17231,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.415455640668912</v>
+        <v>1.392763216280734</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.310140080180508</v>
@@ -17584,7 +17320,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.396676063291749</v>
+        <v>1.366520365394248</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.363495191810524</v>
@@ -17673,7 +17409,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.386151918025978</v>
+        <v>1.359111347470189</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.333339006173047</v>
@@ -17762,7 +17498,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.369905123184438</v>
+        <v>1.34046699802686</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.310652372211594</v>
@@ -17851,7 +17587,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.377536621858364</v>
+        <v>1.346002710678322</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.331958347857825</v>
@@ -17940,7 +17676,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.380495018739213</v>
+        <v>1.348881686108037</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.397930397053055</v>
@@ -18029,7 +17765,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.370494081021594</v>
+        <v>1.339815551755319</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.413419161412134</v>
@@ -18118,7 +17854,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.369895453603352</v>
+        <v>1.338914551074098</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.400498203538324</v>
@@ -18207,7 +17943,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.366546189958554</v>
+        <v>1.337662184439615</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.354670109843445</v>
@@ -18296,7 +18032,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.379879892306621</v>
+        <v>1.34758208065449</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.200293228640597</v>
@@ -18385,7 +18121,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.370523401348362</v>
+        <v>1.338645657949038</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.35257994887683</v>
@@ -18474,7 +18210,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.369517327523894</v>
+        <v>1.337406970170352</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.262337855007237</v>
@@ -18563,7 +18299,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.37484654977049</v>
+        <v>1.345350981289041</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.422071505497688</v>
@@ -18652,7 +18388,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.382193193253057</v>
+        <v>1.352012922097058</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.276244597088781</v>
@@ -18741,7 +18477,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.394490499334125</v>
+        <v>1.368791496081797</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.409902198327588</v>
@@ -18830,7 +18566,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.406944273611547</v>
+        <v>1.383405729909402</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.155809115796038</v>
@@ -18919,7 +18655,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.414948616006202</v>
+        <v>1.393381801011829</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.349206230218267</v>
@@ -19008,7 +18744,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.428747548697226</v>
+        <v>1.407967756994709</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.061998864405637</v>
@@ -19097,7 +18833,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.436624254568207</v>
+        <v>1.417556593873918</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.81371254314193</v>
@@ -19186,7 +18922,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.425999642144464</v>
+        <v>1.408795386681575</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.710837026687458</v>
@@ -19275,7 +19011,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.425124460368733</v>
+        <v>1.401563794889978</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.477076061099689</v>
@@ -19364,7 +19100,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.432990739769726</v>
+        <v>1.403666420449385</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.768440948152838</v>
@@ -19453,7 +19189,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.430431539597074</v>
+        <v>1.400070102438842</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.651147084389539</v>
@@ -19542,7 +19278,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.435767404877426</v>
+        <v>1.402093873730367</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.670868021371267</v>
@@ -19631,7 +19367,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.438841457593059</v>
+        <v>1.407986958264865</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.351451197040128</v>
@@ -19720,7 +19456,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.448246713755218</v>
+        <v>1.411842069422392</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.615715429364044</v>
@@ -19809,7 +19545,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.466528930372329</v>
+        <v>1.424911322798105</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.860690290453873</v>
@@ -19898,7 +19634,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.453417057583168</v>
+        <v>1.407864580807143</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.743559512823468</v>
@@ -19987,7 +19723,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.448458973887173</v>
+        <v>1.406263639099324</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.930433412266443</v>
@@ -20273,7 +20009,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.366828203903429</v>
+        <v>1.326346712679244</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.829617776561344</v>
@@ -20362,7 +20098,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.376959910133856</v>
+        <v>1.344221165279673</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.487567511897967</v>
@@ -20451,7 +20187,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.381155986869211</v>
+        <v>1.349182943013131</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.739608431537791</v>
@@ -20540,7 +20276,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.392674676506271</v>
+        <v>1.356432098153599</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.734437569939716</v>
@@ -20629,7 +20365,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.40810660056189</v>
+        <v>1.368035307840305</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.521118413232765</v>
@@ -20718,7 +20454,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.411553275371733</v>
+        <v>1.372128391058907</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.718397506841062</v>
@@ -20807,7 +20543,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.423427664046057</v>
+        <v>1.381342958953328</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.636654933812661</v>
@@ -20896,7 +20632,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.42606503701566</v>
+        <v>1.387053045808785</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.827335434632235</v>
@@ -20985,7 +20721,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.43209752685922</v>
+        <v>1.389175120365458</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.833002223235013</v>
@@ -21074,7 +20810,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.426565049694646</v>
+        <v>1.387123944390688</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.719310584071094</v>
@@ -21163,7 +20899,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.422434172342144</v>
+        <v>1.390908892822031</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.732657896170905</v>
@@ -21252,7 +20988,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.442219862805723</v>
+        <v>1.403431840310218</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.527349067789548</v>
@@ -21341,7 +21077,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.458701239356148</v>
+        <v>1.416258124121689</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.738367540889123</v>
@@ -21430,7 +21166,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.479506422265406</v>
+        <v>1.440717989183276</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.765128531489812</v>
@@ -21519,7 +21255,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.478611385520541</v>
+        <v>1.43484440252128</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.807508736215198</v>
@@ -21608,7 +21344,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.467228729691949</v>
+        <v>1.427266320212039</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.816523344670416</v>
@@ -21697,7 +21433,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.471357825926018</v>
+        <v>1.4289069803263</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.79282194655433</v>
@@ -21786,7 +21522,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.445483708636414</v>
+        <v>1.402052212921049</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.786402403394176</v>
@@ -21875,7 +21611,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.421617326693145</v>
+        <v>1.381387622088291</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.786011157376054</v>
@@ -21964,7 +21700,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.404577841723839</v>
+        <v>1.370950842333023</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.800760035331232</v>
@@ -22053,7 +21789,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.402939667301297</v>
+        <v>1.367989784210091</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.848530067869181</v>
@@ -22142,7 +21878,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.401217952182671</v>
+        <v>1.360642655933387</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.848463473237498</v>
@@ -22231,7 +21967,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.395808740429351</v>
+        <v>1.357577160766403</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.823472303325075</v>
@@ -22320,7 +22056,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.388629847394507</v>
+        <v>1.351663797859227</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.826071664800051</v>
@@ -22409,7 +22145,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.397504407058844</v>
+        <v>1.35474657620711</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.816749523879071</v>
@@ -22498,7 +22234,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.398677573584752</v>
+        <v>1.35158974728203</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.804382730080719</v>
@@ -22587,7 +22323,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.386880264948014</v>
+        <v>1.343445875169115</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.839957972045861</v>
@@ -22676,7 +22412,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.391395448639814</v>
+        <v>1.34577542146627</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.869710700636842</v>
@@ -22765,7 +22501,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.371573148537253</v>
+        <v>1.325898143135619</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.592852213381966</v>
@@ -22854,7 +22590,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.373416448490189</v>
+        <v>1.331704151114183</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.605984587659427</v>
@@ -22943,7 +22679,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.370433037590773</v>
+        <v>1.329170080835469</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.46730048977388</v>
@@ -23032,7 +22768,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.367123930258866</v>
+        <v>1.319495761209438</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.419411029529308</v>
@@ -23121,7 +22857,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.373856448481592</v>
+        <v>1.332632932433493</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.666178053675174</v>
@@ -23210,7 +22946,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.396741359157585</v>
+        <v>1.356417492999741</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.612269743977912</v>
@@ -23299,7 +23035,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.411009386120094</v>
+        <v>1.367906063256308</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.559239458317575</v>
@@ -23388,7 +23124,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.424732151733805</v>
+        <v>1.379524207170053</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.746328056771431</v>
@@ -23477,7 +23213,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.429309909999088</v>
+        <v>1.390537563360463</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.562330894473243</v>
@@ -23566,7 +23302,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.419357358396057</v>
+        <v>1.386467984370805</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.60011339020032</v>
@@ -23655,7 +23391,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.397101386659721</v>
+        <v>1.363931931793005</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.545091562383033</v>
@@ -23744,7 +23480,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.386048567092347</v>
+        <v>1.360996290833011</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.680903818639058</v>
@@ -23833,7 +23569,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.389029558674661</v>
+        <v>1.366569973762825</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.686395486712355</v>
@@ -23922,7 +23658,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.407112539260999</v>
+        <v>1.381154397783084</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.430471321247079</v>
@@ -24011,7 +23747,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.382935430087975</v>
+        <v>1.3641619789079</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.636295816842128</v>
@@ -24100,7 +23836,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.372494248744261</v>
+        <v>1.349191606817383</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.552812409768197</v>
@@ -24189,7 +23925,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.383391086409741</v>
+        <v>1.359884207979594</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.558420178567204</v>
@@ -24278,7 +24014,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.397339582291546</v>
+        <v>1.367485076909772</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.397798746564194</v>
@@ -24367,7 +24103,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.413963586648246</v>
+        <v>1.389616859588149</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.520837517312821</v>
@@ -24456,7 +24192,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.411766072560174</v>
+        <v>1.38930088714012</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.465397955615579</v>
@@ -24545,7 +24281,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.410404613370286</v>
+        <v>1.38724898367639</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.413422195229117</v>
@@ -24634,7 +24370,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.401928086716529</v>
+        <v>1.378840521981464</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.524556547187307</v>
@@ -24723,7 +24459,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.401301911230876</v>
+        <v>1.373986054497302</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.432337533231991</v>
@@ -24812,7 +24548,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.416077375003377</v>
+        <v>1.38210481130361</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.396053461939339</v>
@@ -24901,7 +24637,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.389838226784149</v>
+        <v>1.356996157864023</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.274169489541169</v>
@@ -24990,7 +24726,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.422812393741932</v>
+        <v>1.389501588348484</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.132106028220495</v>
@@ -25079,7 +24815,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.41350621804432</v>
+        <v>1.37619737176858</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.280646379516214</v>
@@ -25168,7 +24904,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.39678435405033</v>
+        <v>1.366635396206109</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.244099263718359</v>
@@ -25257,7 +24993,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.397641457884441</v>
+        <v>1.372304863714853</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.292329681995332</v>
@@ -25346,7 +25082,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.411195792546938</v>
+        <v>1.377248923073064</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.305465289182082</v>
@@ -25435,7 +25171,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.411117027831713</v>
+        <v>1.379266462416818</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.254857045197995</v>
@@ -25524,7 +25260,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.39351944758173</v>
+        <v>1.355342159465929</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.363200692947373</v>
@@ -25613,7 +25349,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.377926694033812</v>
+        <v>1.342242122120937</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.329071903577006</v>
@@ -25702,7 +25438,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.368886206631243</v>
+        <v>1.325462594228385</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.322382831841663</v>
@@ -25791,7 +25527,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.377650886902773</v>
+        <v>1.32795185062224</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.368584591268033</v>
@@ -25880,7 +25616,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.382052251281554</v>
+        <v>1.330131190447786</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.379250827064418</v>
@@ -25969,7 +25705,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.375165688940365</v>
+        <v>1.327239664061453</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.48629919476718</v>
@@ -26058,7 +25794,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.372353285235784</v>
+        <v>1.32557702137409</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.419518068094935</v>
@@ -26147,7 +25883,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.367199128951978</v>
+        <v>1.321985950009715</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.407714553338971</v>
@@ -26236,7 +25972,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.388970941577718</v>
+        <v>1.337895189840189</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.399956394854336</v>
@@ -26325,7 +26061,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.380105801513599</v>
+        <v>1.329698719744935</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.57541225753805</v>
@@ -26414,7 +26150,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.383248304313143</v>
+        <v>1.334932173065885</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.514680775430012</v>
@@ -26503,7 +26239,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.392407404278833</v>
+        <v>1.34790200534227</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.614754526387496</v>
@@ -26592,7 +26328,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.390456609000468</v>
+        <v>1.34343213142746</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.525489611665583</v>
@@ -26681,7 +26417,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.395918723755045</v>
+        <v>1.350550757976993</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.612198473727285</v>
@@ -26770,7 +26506,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.41054346148988</v>
+        <v>1.365012092619208</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.268626863819591</v>
@@ -26859,7 +26595,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.424139474549681</v>
+        <v>1.383731599338941</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.431777668570038</v>
@@ -26948,7 +26684,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.451919736098942</v>
+        <v>1.410346716046142</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.092016989391729</v>
@@ -27037,7 +26773,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.448689982447275</v>
+        <v>1.407816500432054</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.795134343948537</v>
@@ -27126,7 +26862,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.442244801814182</v>
+        <v>1.406955504706134</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.772431264734565</v>
@@ -27215,7 +26951,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.438991487336278</v>
+        <v>1.401359840585912</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.543915780254144</v>
@@ -27304,7 +27040,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.450934796295601</v>
+        <v>1.407665840002803</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.685752880154268</v>
@@ -27393,7 +27129,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.442883896887366</v>
+        <v>1.404040711645526</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.672070552144722</v>
@@ -27482,7 +27218,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.448048517625628</v>
+        <v>1.407427747755673</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.788854029524394</v>
@@ -27571,7 +27307,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.448071508119634</v>
+        <v>1.411593359563377</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.460395179890468</v>
@@ -27660,7 +27396,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.444216822700068</v>
+        <v>1.407743411936645</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.7927048392617</v>
@@ -27749,7 +27485,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.459407979888665</v>
+        <v>1.419773014165793</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.745833258614108</v>
@@ -27838,7 +27574,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.452308431449562</v>
+        <v>1.406642332752351</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.498444681456919</v>
@@ -27927,7 +27663,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.4551331813141</v>
+        <v>1.410211050863633</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.796030650415435</v>
@@ -28213,7 +27949,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.434931490666867</v>
+        <v>1.399002748065365</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.868150394173954</v>
@@ -28302,7 +28038,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.447213266434339</v>
+        <v>1.421896897330399</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.566888114336247</v>
@@ -28391,7 +28127,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.45550489040811</v>
+        <v>1.43138629275359</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.903797095230869</v>
@@ -28480,7 +28216,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.465013023102245</v>
+        <v>1.435698805566392</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.903038433586792</v>
@@ -28569,7 +28305,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.481088564216985</v>
+        <v>1.454221823942653</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.675645314021589</v>
@@ -28658,7 +28394,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.478360633795173</v>
+        <v>1.453959838919299</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.934498314402212</v>
@@ -28747,7 +28483,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.478983057184055</v>
+        <v>1.454519365970443</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.956206438400561</v>
@@ -28836,7 +28572,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.491567684657467</v>
+        <v>1.460038150655961</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.728895898368409</v>
@@ -28925,7 +28661,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.504551074486709</v>
+        <v>1.469297624203863</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.03275826295355</v>
@@ -29014,7 +28750,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.499523340546792</v>
+        <v>1.466067804495348</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.939301491525442</v>
@@ -29103,7 +28839,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.493482847734335</v>
+        <v>1.458460124700533</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.963901980744799</v>
@@ -29192,7 +28928,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.514725330255356</v>
+        <v>1.480064640775187</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.862269688520174</v>
@@ -29281,7 +29017,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.537664682101437</v>
+        <v>1.497617498438756</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.262891749983026</v>
@@ -29370,7 +29106,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.536093840241354</v>
+        <v>1.494740749690316</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.64696356698192</v>
@@ -29459,7 +29195,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.552255474507424</v>
+        <v>1.503518295124172</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.045036637386127</v>
@@ -29548,7 +29284,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.553208294044372</v>
+        <v>1.508888799521888</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.883852139420457</v>
@@ -29637,7 +29373,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.538465672930405</v>
+        <v>1.495685903266542</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.731793558666284</v>
@@ -29726,7 +29462,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.503120602889434</v>
+        <v>1.467376078885295</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.502023329322181</v>
@@ -29815,7 +29551,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.463395195591693</v>
+        <v>1.431883689271559</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.384494678546651</v>
@@ -29904,7 +29640,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.446696791526672</v>
+        <v>1.416800572159181</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.410892398556088</v>
@@ -29993,7 +29729,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.441574610167535</v>
+        <v>1.411293841083804</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.346554537032851</v>
@@ -30082,7 +29818,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.438506573103119</v>
+        <v>1.402417182869946</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.240129923871794</v>
@@ -30171,7 +29907,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.426173185372834</v>
+        <v>1.394377756268079</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.470671648713872</v>
@@ -30260,7 +29996,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.425841649353006</v>
+        <v>1.399056410926115</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.410162964027945</v>
@@ -30349,7 +30085,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.428050280090834</v>
+        <v>1.401589871847206</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.453886100568789</v>
@@ -30438,7 +30174,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.426496072677276</v>
+        <v>1.399483561477888</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.463107132070776</v>
@@ -30527,7 +30263,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.411178729465791</v>
+        <v>1.376501136872958</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.397678920453377</v>
@@ -30616,7 +30352,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.403803258477292</v>
+        <v>1.376569871510341</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.484558548778514</v>
@@ -30705,7 +30441,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.410978870105092</v>
+        <v>1.38913685585889</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.487801939947404</v>
@@ -30794,7 +30530,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.40205235212456</v>
+        <v>1.385499941280799</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.525172023254633</v>
@@ -30883,7 +30619,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.392985162298884</v>
+        <v>1.3773434900614</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.353353866202875</v>
@@ -30972,7 +30708,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.39536572933615</v>
+        <v>1.374765839746503</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.321977724592302</v>
@@ -31061,7 +30797,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.401237633264621</v>
+        <v>1.382230067843475</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.522180825420266</v>
@@ -31150,7 +30886,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.430104580670942</v>
+        <v>1.412000787402401</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.534538672195454</v>
@@ -31239,7 +30975,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.442718808107322</v>
+        <v>1.421657940379752</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.545979713764686</v>
@@ -31328,7 +31064,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.448894428511024</v>
+        <v>1.428966797795188</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.578137192522266</v>
@@ -31417,7 +31153,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.460013845397068</v>
+        <v>1.444326869610589</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.536568346491573</v>
@@ -31506,7 +31242,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.453454131394115</v>
+        <v>1.444239853364069</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.592334198710257</v>
@@ -31595,7 +31331,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.428019626240223</v>
+        <v>1.416805817499818</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.574712063099901</v>
@@ -31684,7 +31420,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.421270721020705</v>
+        <v>1.415485180770579</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.529698336438872</v>
@@ -31773,7 +31509,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.426786967334857</v>
+        <v>1.418989978446392</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.601235505829346</v>
@@ -31862,7 +31598,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.463482045276691</v>
+        <v>1.457619516997726</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.752752053887817</v>
@@ -31951,7 +31687,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.444841043614949</v>
+        <v>1.435178088115903</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.410605669123114</v>
@@ -32040,7 +31776,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.420892597913069</v>
+        <v>1.411047077664417</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.557573336086952</v>
@@ -32129,7 +31865,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.433724935620138</v>
+        <v>1.423111995462747</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.375863081307842</v>
@@ -32218,7 +31954,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.448415081453788</v>
+        <v>1.433279831270878</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.335013674556494</v>
@@ -32307,7 +32043,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.469172061598226</v>
+        <v>1.455474274482301</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.582289478328193</v>
@@ -32396,7 +32132,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.462123691501946</v>
+        <v>1.450328784132979</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.673487482433532</v>
@@ -32485,7 +32221,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.462139672517556</v>
+        <v>1.448333708660243</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.534889401632015</v>
@@ -32574,7 +32310,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.460451123667696</v>
+        <v>1.449343550706962</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.634695318607482</v>
@@ -32663,7 +32399,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.468601248901042</v>
+        <v>1.454789875905878</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.44678752816324</v>
@@ -32752,7 +32488,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.479377953378672</v>
+        <v>1.461533052280023</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.315780861233964</v>
@@ -32841,7 +32577,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.471317170228831</v>
+        <v>1.456829854850265</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.549417004415099</v>
@@ -32930,7 +32666,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.5015021118614</v>
+        <v>1.487752177136689</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.350438580590565</v>
@@ -33019,7 +32755,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.4840692832561</v>
+        <v>1.467531865642251</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.580287832000912</v>
@@ -33108,7 +32844,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.45230552678582</v>
+        <v>1.440982665995982</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.555104084663069</v>
@@ -33197,7 +32933,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.43818000694412</v>
+        <v>1.434378737415138</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.519667792477897</v>
@@ -33286,7 +33022,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.463579222120886</v>
+        <v>1.45561140970624</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.666311376313765</v>
@@ -33375,7 +33111,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.471568161212219</v>
+        <v>1.46565864809001</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.524394121102726</v>
@@ -33464,7 +33200,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.467228346724897</v>
+        <v>1.457986686682343</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.576150149915354</v>
@@ -33553,7 +33289,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.461643809434319</v>
+        <v>1.453721634612314</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.510144245849999</v>
@@ -33642,7 +33378,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.459856870633588</v>
+        <v>1.452339762632715</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.471530419956876</v>
@@ -33731,7 +33467,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.480227417447672</v>
+        <v>1.46678959900375</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.695297763966876</v>
@@ -33820,7 +33556,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.477438512407537</v>
+        <v>1.470702849055223</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.567838718586045</v>
@@ -33909,7 +33645,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.471612020954472</v>
+        <v>1.462467636878899</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.612320978479437</v>
@@ -33998,7 +33734,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.473418250700338</v>
+        <v>1.46351903475311</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.734313808228183</v>
@@ -34087,7 +33823,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.473453113832172</v>
+        <v>1.462023262170713</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.594688687145678</v>
@@ -34176,7 +33912,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.48543731375945</v>
+        <v>1.468964310659512</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.471257203534203</v>
@@ -34265,7 +34001,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.466610820612167</v>
+        <v>1.453364641453236</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.620924484041385</v>
@@ -34354,7 +34090,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.474780447353081</v>
+        <v>1.455703197528794</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.902586520695267</v>
@@ -34443,7 +34179,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.506486409665456</v>
+        <v>1.492638919445274</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.893394551168379</v>
@@ -34532,7 +34268,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.507913468184446</v>
+        <v>1.49044662556516</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.724795278703928</v>
@@ -34621,7 +34357,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.508507490445379</v>
+        <v>1.487774960027106</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.963313424877923</v>
@@ -34710,7 +34446,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.522230322507654</v>
+        <v>1.498973583407203</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.753877655675554</v>
@@ -34799,7 +34535,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.528526063480252</v>
+        <v>1.507539934612339</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.76975621616765</v>
@@ -34888,7 +34624,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.546565968434054</v>
+        <v>1.515578502897196</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.866340457202531</v>
@@ -34977,7 +34713,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.531440565485317</v>
+        <v>1.496447451285591</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.74101518933607</v>
@@ -35066,7 +34802,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.518518803574948</v>
+        <v>1.487189008502101</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.692858791131479</v>
@@ -35155,7 +34891,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.51671886857815</v>
+        <v>1.481224492896387</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.706752583536065</v>
@@ -35244,7 +34980,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.524566670551067</v>
+        <v>1.485807841235982</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.820882612770529</v>
@@ -35333,7 +35069,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.517217984204994</v>
+        <v>1.480014602882167</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.864176708022811</v>
@@ -35422,7 +35158,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.517214430687601</v>
+        <v>1.483409867160966</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.856800629429773</v>
@@ -35511,7 +35247,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.513782646354009</v>
+        <v>1.483040284933499</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.463473963538201</v>
@@ -35600,7 +35336,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.530851480088915</v>
+        <v>1.491141460134396</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.658120195752673</v>
@@ -35689,7 +35425,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.537698708851706</v>
+        <v>1.502472589267562</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.692085827951549</v>
@@ -35778,7 +35514,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.523516243520158</v>
+        <v>1.482437089932441</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.941138091681083</v>
@@ -35867,7 +35603,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.517102109337941</v>
+        <v>1.476668027624189</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.719598638675731</v>
@@ -36153,7 +35889,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.541610669439878</v>
+        <v>1.507158150148056</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.026742513641246</v>
@@ -36242,7 +35978,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.551889653424908</v>
+        <v>1.520131557292522</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.849189423718356</v>
@@ -36331,7 +36067,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.55487358162133</v>
+        <v>1.521576817604735</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.063022797007292</v>
@@ -36420,7 +36156,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.563668358771022</v>
+        <v>1.528598515298003</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.874126864373694</v>
@@ -36509,7 +36245,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.583095598694421</v>
+        <v>1.548790059708665</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.711263399854383</v>
@@ -36598,7 +36334,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.583735011169824</v>
+        <v>1.548041626555853</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.976949133261185</v>
@@ -36687,7 +36423,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.581692720228498</v>
+        <v>1.547626344116685</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.613962719748802</v>
@@ -36776,7 +36512,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.594754406589406</v>
+        <v>1.564120341149387</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.918847280964645</v>
@@ -36865,7 +36601,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.585892534221229</v>
+        <v>1.557669640791881</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.001931115281438</v>
@@ -36954,7 +36690,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.585348898869396</v>
+        <v>1.56160830050402</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.80328073279315</v>
@@ -37043,7 +36779,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.589362123285998</v>
+        <v>1.566614416686856</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.651085083555981</v>
@@ -37132,7 +36868,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.590317674260696</v>
+        <v>1.562799386291704</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.702023700655442</v>
@@ -37221,7 +36957,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.606765727022967</v>
+        <v>1.572439000567097</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.842879222076316</v>
@@ -37310,7 +37046,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622877187580806</v>
+        <v>1.58208644751782</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.686143704275302</v>
@@ -37399,7 +37135,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.64091413058338</v>
+        <v>1.595066124330846</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.516927378497949</v>
@@ -37488,7 +37224,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.642456372531015</v>
+        <v>1.589402446708929</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.304548615212777</v>
@@ -37577,7 +37313,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.641108242487087</v>
+        <v>1.58707014139629</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.418401146863124</v>
@@ -37666,7 +37402,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.633750708266823</v>
+        <v>1.585005787260927</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.23971010647483</v>
@@ -37755,7 +37491,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.623614946731488</v>
+        <v>1.57760923172383</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.400413695720192</v>
@@ -37844,7 +37580,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.609168589770233</v>
+        <v>1.562585696756494</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.314980597399716</v>
@@ -37933,7 +37669,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.603647516509172</v>
+        <v>1.563772528224937</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.433547470036551</v>
@@ -38022,7 +37758,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.579140775931478</v>
+        <v>1.536312435915684</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.487942534291045</v>
@@ -38111,7 +37847,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.574677979140856</v>
+        <v>1.533701545157833</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.253540365210369</v>
@@ -38200,7 +37936,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.580400446899113</v>
+        <v>1.539315807567512</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.244615881636612</v>
@@ -38289,7 +38025,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.580598204421721</v>
+        <v>1.53893397726906</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.013773259122495</v>
@@ -38378,7 +38114,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.579056392914212</v>
+        <v>1.531436736285078</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.313707197114163</v>
@@ -38467,7 +38203,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.556343432595776</v>
+        <v>1.51952470092163</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.60857001536703</v>
@@ -38556,7 +38292,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.564147844718285</v>
+        <v>1.535513577293</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.760362045764135</v>
@@ -38645,7 +38381,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.558043480022752</v>
+        <v>1.53971413132073</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.66668274614257</v>
@@ -38734,7 +38470,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.543930910069593</v>
+        <v>1.528553302836002</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.729435493292112</v>
@@ -38823,7 +38559,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.538073787661086</v>
+        <v>1.528995212278617</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.582375756134606</v>
@@ -38912,7 +38648,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.54338100934111</v>
+        <v>1.530054232076236</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.831120984598674</v>
@@ -39001,7 +38737,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.557584163723242</v>
+        <v>1.546943733117517</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.920276623010082</v>
@@ -39090,7 +38826,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.559631721351463</v>
+        <v>1.549093402399475</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.812368925827246</v>
@@ -39179,7 +38915,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.559656469458173</v>
+        <v>1.545643368835517</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.768838641699809</v>
@@ -39268,7 +39004,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.565583752614698</v>
+        <v>1.549143555293385</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.789177956658166</v>
@@ -39357,7 +39093,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.576326800344427</v>
+        <v>1.564635593421752</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.923275607662668</v>
@@ -39446,7 +39182,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.568771179654377</v>
+        <v>1.557780345089776</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.744623402896611</v>
@@ -39535,7 +39271,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.561136075048037</v>
+        <v>1.546531647575948</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.772851084293911</v>
@@ -39624,7 +39360,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.562134908540041</v>
+        <v>1.544140321070119</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.829784272675224</v>
@@ -39713,7 +39449,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.572665599424439</v>
+        <v>1.558017185411958</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.727840523885821</v>
@@ -39802,7 +39538,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.603729592480825</v>
+        <v>1.579484137812042</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.785177151815227</v>
@@ -39891,7 +39627,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.575713104731798</v>
+        <v>1.552321674740233</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.034539299333273</v>
@@ -39980,7 +39716,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.563412150529808</v>
+        <v>1.533180009498098</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.974337027095024</v>
@@ -40069,7 +39805,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.577147987558889</v>
+        <v>1.540202227154737</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.572445829571854</v>
@@ -40158,7 +39894,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.590690687449656</v>
+        <v>1.54745052162505</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.816423234211221</v>
@@ -40247,7 +39983,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.600554046806173</v>
+        <v>1.560696023124227</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.758576486622423</v>
@@ -40336,7 +40072,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.580324408034498</v>
+        <v>1.537611443398552</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.971964174702147</v>
@@ -40425,7 +40161,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.589466387719943</v>
+        <v>1.546540322442296</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.804248220813971</v>
@@ -40514,7 +40250,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.590081291528284</v>
+        <v>1.548352146969731</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.955934118841906</v>
@@ -40603,7 +40339,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.589636894630018</v>
+        <v>1.549269764859021</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.703168676036641</v>
@@ -40692,7 +40428,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.592044450646856</v>
+        <v>1.546019680158491</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.482071011965043</v>
@@ -40781,7 +40517,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.586582838222192</v>
+        <v>1.537306254563051</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.722962293803949</v>
@@ -40870,7 +40606,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.59604792175414</v>
+        <v>1.558924637278195</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.720485414999758</v>
@@ -40959,7 +40695,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.589065675938606</v>
+        <v>1.560183182196967</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.737282813597546</v>
@@ -41048,7 +40784,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.571961035155599</v>
+        <v>1.543973640785819</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.898892931584495</v>
@@ -41137,7 +40873,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.564011171236992</v>
+        <v>1.534324187308847</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.807715626231188</v>
@@ -41226,7 +40962,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.577835081047237</v>
+        <v>1.540601949845344</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.034520994195472</v>
@@ -41315,7 +41051,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.574682565628502</v>
+        <v>1.539091631809369</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.871997011048121</v>
@@ -41404,7 +41140,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.552997073625884</v>
+        <v>1.515563887780043</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.708823334165211</v>
@@ -41493,7 +41229,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.539928132362631</v>
+        <v>1.508668148884953</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.777186039741807</v>
@@ -41582,7 +41318,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.523681517642347</v>
+        <v>1.492268711571269</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.944287730803643</v>
@@ -41671,7 +41407,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.533032622991964</v>
+        <v>1.499720285152027</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.994154079738169</v>
@@ -41760,7 +41496,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.540560860645212</v>
+        <v>1.508436239896636</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.072995726168312</v>
@@ -41849,7 +41585,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.528940015828616</v>
+        <v>1.505158443421225</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.913699576877862</v>
@@ -41938,7 +41674,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.536177991539259</v>
+        <v>1.51395237381491</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.030200961225071</v>
@@ -42027,7 +41763,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.536913133606671</v>
+        <v>1.516256716585011</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.931543567465328</v>
@@ -42116,7 +41852,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.551189486919882</v>
+        <v>1.532390572782727</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.772522501623878</v>
@@ -42205,7 +41941,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.530745464521259</v>
+        <v>1.513693463016463</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.876325618456685</v>
@@ -42294,7 +42030,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.526857944156155</v>
+        <v>1.514552435961549</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.934363824395273</v>
@@ -42383,7 +42119,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.544403367432626</v>
+        <v>1.533679141362012</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.041073707166621</v>
@@ -42472,7 +42208,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.544259202373859</v>
+        <v>1.535053908428043</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.038198470109166</v>
@@ -42561,7 +42297,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.548969962621272</v>
+        <v>1.539264756905771</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.18709443331942</v>
@@ -42650,7 +42386,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.573370606419162</v>
+        <v>1.566040001731095</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.823759197676789</v>
@@ -42739,7 +42475,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.58624779810173</v>
+        <v>1.579136560784577</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.873113759239117</v>
@@ -42828,7 +42564,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.604554236519764</v>
+        <v>1.5931925798471</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.682613853789913</v>
@@ -42917,7 +42653,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.610287307235079</v>
+        <v>1.594547782360345</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.144832924606416</v>
@@ -43006,7 +42742,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.601841038156185</v>
+        <v>1.592127326598094</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.185855141147852</v>
@@ -43095,7 +42831,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.600307732983313</v>
+        <v>1.588670554189693</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.205871155128086</v>
@@ -43184,7 +42920,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.616723617072068</v>
+        <v>1.596032602963293</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.050199762979327</v>
@@ -43273,7 +43009,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.60363288748022</v>
+        <v>1.581717891346045</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.995998319756197</v>
@@ -43362,7 +43098,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.614326432521214</v>
+        <v>1.588944679975767</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.120067144916535</v>
@@ -43451,7 +43187,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.614165540443598</v>
+        <v>1.585960198437224</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.669173185140157</v>
@@ -43540,7 +43276,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.626133101904114</v>
+        <v>1.590206981438502</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.956502913702135</v>
@@ -43629,7 +43365,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.626430300447636</v>
+        <v>1.586942493116462</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.235040116817899</v>
@@ -43718,7 +43454,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.614303035210773</v>
+        <v>1.571695400514963</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.370918862974499</v>
@@ -43807,7 +43543,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.614880503079701</v>
+        <v>1.577437530400642</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.248267757728284</v>
@@ -44093,7 +43829,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.130316055320914</v>
+        <v>1.078176257051312</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.202980821456474</v>
@@ -44182,7 +43918,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.109638501423106</v>
+        <v>1.066527782844467</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.927918749728592</v>
@@ -44271,7 +44007,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.106289258593597</v>
+        <v>1.066564209048449</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.154180622348892</v>
@@ -44360,7 +44096,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.108056850348432</v>
+        <v>1.066603502385534</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.149030994321382</v>
@@ -44449,7 +44185,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.106343724526977</v>
+        <v>1.07093680382146</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.929376705241605</v>
@@ -44538,7 +44274,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.094977430818858</v>
+        <v>1.06186888333113</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.120598030978817</v>
@@ -44627,7 +44363,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.092453042391587</v>
+        <v>1.060966095995143</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.996655876735433</v>
@@ -44716,7 +44452,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.08174118575164</v>
+        <v>1.057092167053765</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.999515467564961</v>
@@ -44805,7 +44541,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.082946719761818</v>
+        <v>1.058071701671254</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.05134906355143</v>
@@ -44894,7 +44630,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.084333751181296</v>
+        <v>1.059000942849597</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.088469300782628</v>
@@ -44983,7 +44719,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.083311143288836</v>
+        <v>1.057569558342222</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.060100959033643</v>
@@ -45072,7 +44808,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.086839680934346</v>
+        <v>1.063931853123242</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.903835994418633</v>
@@ -45161,7 +44897,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.081074332181013</v>
+        <v>1.062668111791032</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.026138199629529</v>
@@ -45250,7 +44986,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.088398664714337</v>
+        <v>1.069625978565357</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.821169161385604</v>
@@ -45339,7 +45075,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.084377103242442</v>
+        <v>1.069244933634097</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.02449260960289</v>
@@ -45428,7 +45164,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.088843614183524</v>
+        <v>1.069377734789791</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.945629489128402</v>
@@ -45517,7 +45253,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.098653509193397</v>
+        <v>1.073796565474437</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.978204387272409</v>
@@ -45606,7 +45342,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.095538056281224</v>
+        <v>1.069441921395497</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.862652251498917</v>
@@ -45695,7 +45431,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.098807038058114</v>
+        <v>1.064265376523179</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.848687450963511</v>
@@ -45784,7 +45520,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.099060321126829</v>
+        <v>1.06382301364945</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.922957300700107</v>
@@ -45873,7 +45609,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.098933847156641</v>
+        <v>1.065187068497112</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.826556325654361</v>
@@ -45962,7 +45698,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.103986307332361</v>
+        <v>1.066396711168462</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.772771247831699</v>
@@ -46051,7 +45787,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.105408810471524</v>
+        <v>1.063968916469836</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.971785120709688</v>
@@ -46140,7 +45876,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.105793879287839</v>
+        <v>1.065084894460004</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.956847981287154</v>
@@ -46229,7 +45965,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.104863375931679</v>
+        <v>1.06414575720285</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.962330682701732</v>
@@ -46318,7 +46054,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.106400140191244</v>
+        <v>1.066027849933552</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.95247388016764</v>
@@ -46407,7 +46143,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.117241110558085</v>
+        <v>1.073025068455036</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.967685274394857</v>
@@ -46496,7 +46232,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.108945813295287</v>
+        <v>1.067884952075839</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.024458727860754</v>
@@ -46585,7 +46321,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.107614454170911</v>
+        <v>1.065500317257065</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.992037431325501</v>
@@ -46674,7 +46410,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.107815173929527</v>
+        <v>1.066417286390224</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.075657297231509</v>
@@ -46763,7 +46499,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.109459233957933</v>
+        <v>1.065759311599136</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.949444097502008</v>
@@ -46852,7 +46588,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.124827208441207</v>
+        <v>1.074011803711375</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.962396119967672</v>
@@ -46941,7 +46677,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.123950690866658</v>
+        <v>1.074017723754415</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.069795108722097</v>
@@ -47030,7 +46766,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.122875550341518</v>
+        <v>1.074655110115296</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.05634696934671</v>
@@ -47119,7 +46855,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.124095643764982</v>
+        <v>1.075661187375328</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.984832188471372</v>
@@ -47208,7 +46944,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.129437314096231</v>
+        <v>1.078020334099092</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.00373626484553</v>
@@ -47297,7 +47033,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.133424872253486</v>
+        <v>1.084166124249323</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.001063990065646</v>
@@ -47386,7 +47122,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.119014748085753</v>
+        <v>1.07346345547545</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.000205700877906</v>
@@ -47475,7 +47211,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.118793035824866</v>
+        <v>1.0708713947008</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.115838800621511</v>
@@ -47564,7 +47300,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.112643536350904</v>
+        <v>1.067515379814679</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.10061039627052</v>
@@ -47653,7 +47389,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.113462003972635</v>
+        <v>1.068090874446397</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.045488363156551</v>
@@ -47742,7 +47478,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.117729375161476</v>
+        <v>1.072618533088395</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.214541130931961</v>
@@ -47831,7 +47567,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.113218357481401</v>
+        <v>1.066869102233701</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.072106811647658</v>
@@ -47920,7 +47656,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.103856112477495</v>
+        <v>1.06127680290924</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.017406774752771</v>
@@ -48009,7 +47745,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.105269245866442</v>
+        <v>1.063474108761584</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.878871999424895</v>
@@ -48098,7 +47834,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.111342114876875</v>
+        <v>1.068074395520293</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.808864275660215</v>
@@ -48187,7 +47923,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.093144771496713</v>
+        <v>1.059506012371017</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.985570633175803</v>
@@ -48276,7 +48012,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.083325525365951</v>
+        <v>1.052364815347776</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.948798553802234</v>
@@ -48365,7 +48101,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.084276267403617</v>
+        <v>1.053142145751684</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.952391666545738</v>
@@ -48454,7 +48190,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.086286063585937</v>
+        <v>1.054035219018851</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.964784303110231</v>
@@ -48543,7 +48279,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.086420449737196</v>
+        <v>1.055643350812017</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.848143464210234</v>
@@ -48632,7 +48368,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.090300810863105</v>
+        <v>1.05731345815176</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.758129243828598</v>
@@ -48721,7 +48457,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.098605749914481</v>
+        <v>1.060888572997998</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.897021207250829</v>
@@ -48810,7 +48546,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.096211312788171</v>
+        <v>1.062789228665847</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.902463635639931</v>
@@ -48899,7 +48635,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.10120956094595</v>
+        <v>1.062291959486189</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.888355799573233</v>
@@ -48988,7 +48724,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.109248954733169</v>
+        <v>1.06685051064654</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.990560847345752</v>
@@ -49077,7 +48813,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.101318567799964</v>
+        <v>1.061669539763005</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.936654299062742</v>
@@ -49166,7 +48902,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.115687636224491</v>
+        <v>1.07003713049568</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.103704627762613</v>
@@ -49255,7 +48991,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.112512552917327</v>
+        <v>1.067907659471462</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.060373418370847</v>
@@ -49344,7 +49080,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.112122673041086</v>
+        <v>1.069461435085623</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.089494294797715</v>
@@ -49433,7 +49169,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.112424363352045</v>
+        <v>1.069728312982414</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.06147775032893</v>
@@ -49522,7 +49258,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.112573960630973</v>
+        <v>1.068265244403758</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.887375438025134</v>
@@ -49611,7 +49347,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.115593172611623</v>
+        <v>1.071341126985988</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.015527086039542</v>
@@ -49700,7 +49436,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.113382098867531</v>
+        <v>1.072136729012985</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.071982696935572</v>
@@ -49789,7 +49525,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.125009210839178</v>
+        <v>1.080679993858342</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.021192945203258</v>
@@ -49878,7 +49614,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.125758647873035</v>
+        <v>1.079545409278293</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.109068132114389</v>
@@ -49967,7 +49703,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.127831552759019</v>
+        <v>1.080905722398263</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.014913002957505</v>
@@ -50056,7 +49792,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.130798106770376</v>
+        <v>1.087259367586482</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.917751847616199</v>
@@ -50145,7 +49881,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.118892249293153</v>
+        <v>1.076117194492892</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.975518922200368</v>
@@ -50234,7 +49970,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.120261441389768</v>
+        <v>1.077001814726912</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.082306250742854</v>
@@ -50323,7 +50059,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.111154430625032</v>
+        <v>1.074977938693324</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.054972557033071</v>
@@ -50412,7 +50148,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.109019350583029</v>
+        <v>1.074851676005052</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.101859313408775</v>
@@ -50501,7 +50237,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.109790455960086</v>
+        <v>1.077309857463198</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.029471903077571</v>
@@ -50590,7 +50326,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.116195978153357</v>
+        <v>1.08303145652038</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.050033084443536</v>
@@ -50679,7 +50415,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.113454155479938</v>
+        <v>1.081357570031438</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.977018253547944</v>
@@ -50768,7 +50504,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.118539390255066</v>
+        <v>1.086097119749796</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.838793538773137</v>
@@ -50857,7 +50593,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.117466429754737</v>
+        <v>1.082546781806601</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.054918997645906</v>
@@ -50946,7 +50682,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.121042350305767</v>
+        <v>1.082764550091116</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.013911741156905</v>
@@ -51035,7 +50771,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.127667978821922</v>
+        <v>1.084891467178981</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.017828156740991</v>
@@ -51124,7 +50860,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.116608148078386</v>
+        <v>1.078236625720921</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.028358683979683</v>
@@ -51213,7 +50949,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.114029777981563</v>
+        <v>1.077995818879733</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.958220791172333</v>
@@ -51302,7 +51038,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.105788020439881</v>
+        <v>1.073436096931143</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.01515846037685</v>
@@ -51391,7 +51127,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.10487130303813</v>
+        <v>1.074036677171152</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.772605545530069</v>
@@ -51480,7 +51216,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.111114847450909</v>
+        <v>1.079627539811947</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.784745298775938</v>
@@ -51569,7 +51305,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.11251313868265</v>
+        <v>1.081870039373217</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.044398149449447</v>
@@ -51658,7 +51394,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.11582252167779</v>
+        <v>1.079491356741622</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.89925930081198</v>
@@ -51747,7 +51483,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.109982111773534</v>
+        <v>1.075178682340942</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.012431905145387</v>
